--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业亏损企业亏损总额.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业亏损企业亏损总额.xlsx
@@ -1981,7 +1981,7 @@
         <v>-79.83</v>
       </c>
       <c r="CH3" t="n">
-        <v>2.11</v>
+        <v>0.72</v>
       </c>
       <c r="CI3" t="n">
         <v>2.69</v>
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.490000000000002</v>
+        <v>2.210000000000002</v>
       </c>
       <c r="C4" t="n">
         <v>18.43</v>
@@ -2243,7 +2243,7 @@
         <v>57.65</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3699999999999997</v>
+        <v>0.1299999999999995</v>
       </c>
       <c r="L4" t="n">
         <v>2.74</v>
@@ -2333,7 +2333,7 @@
         <v>23.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9899999999999984</v>
+        <v>0.6299999999999919</v>
       </c>
       <c r="AP4" t="n">
         <v>21.86</v>
@@ -2369,7 +2369,7 @@
         <v>17.7</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.4500000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="BB4" t="n">
         <v>3.72</v>
@@ -2387,7 +2387,7 @@
         <v>-26.78</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9300000000000006</v>
+        <v>0.8500000000000014</v>
       </c>
       <c r="BH4" t="n">
         <v>5.18</v>
@@ -2396,7 +2396,7 @@
         <v>-10.91</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.8</v>
+        <v>0.3200000000000001</v>
       </c>
       <c r="BK4" t="n">
         <v>3.03</v>
@@ -2414,7 +2414,7 @@
         <v>-12.44</v>
       </c>
       <c r="BP4" t="n">
-        <v>3.07</v>
+        <v>0.9499999999999997</v>
       </c>
       <c r="BQ4" t="n">
         <v>10.77</v>
@@ -2423,7 +2423,7 @@
         <v>-39.54</v>
       </c>
       <c r="BS4" t="n">
-        <v>2.700000000000001</v>
+        <v>1.100000000000005</v>
       </c>
       <c r="BT4" t="n">
         <v>37.52</v>
@@ -2459,7 +2459,7 @@
         <v>18.67</v>
       </c>
       <c r="CE4" t="n">
-        <v>50.16</v>
+        <v>11.58</v>
       </c>
       <c r="CF4" t="n">
         <v>17.25</v>
@@ -2468,7 +2468,7 @@
         <v>-75.7</v>
       </c>
       <c r="CH4" t="n">
-        <v>1.73</v>
+        <v>0.29</v>
       </c>
       <c r="CI4" t="n">
         <v>3.54</v>
@@ -2522,7 +2522,7 @@
         <v>-5.61</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.1699999999999995</v>
+        <v>0.02999999999999939</v>
       </c>
       <c r="DA4" t="n">
         <v>2.15</v>
@@ -2567,7 +2567,7 @@
         <v>-37.19</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.01000000000000002</v>
       </c>
       <c r="DP4" t="n">
         <v>0.68</v>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.620000000000001</v>
+        <v>0.08999999999999897</v>
       </c>
       <c r="C5" t="n">
         <v>22.29</v>
@@ -2712,7 +2712,7 @@
         <v>-7.66</v>
       </c>
       <c r="E5" t="n">
-        <v>4.18</v>
+        <v>1.100000000000016</v>
       </c>
       <c r="F5" t="n">
         <v>44.95</v>
@@ -2730,7 +2730,7 @@
         <v>60.15</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3900000000000001</v>
+        <v>0.02000000000000041</v>
       </c>
       <c r="L5" t="n">
         <v>3.13</v>
@@ -2766,7 +2766,7 @@
         <v>67.41</v>
       </c>
       <c r="W5" t="n">
-        <v>1.170000000000001</v>
+        <v>0.8100000000000007</v>
       </c>
       <c r="X5" t="n">
         <v>9.210000000000001</v>
@@ -2793,7 +2793,7 @@
         <v>-6.82</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.1800000000000002</v>
+        <v>0.04000000000000029</v>
       </c>
       <c r="AG5" t="n">
         <v>1.41</v>
@@ -2820,7 +2820,7 @@
         <v>25.48</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.029999999999998</v>
+        <v>0.03999999999999959</v>
       </c>
       <c r="AP5" t="n">
         <v>26.74</v>
@@ -2829,7 +2829,7 @@
         <v>-4.3</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.1900000000000002</v>
+        <v>0.08000000000000029</v>
       </c>
       <c r="AS5" t="n">
         <v>7.8</v>
@@ -2865,7 +2865,7 @@
         <v>4.66</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.2100000000000004</v>
+        <v>0.07000000000000051</v>
       </c>
       <c r="BE5" t="n">
         <v>2.19</v>
@@ -2892,7 +2892,7 @@
         <v>-27.68</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.6099999999999994</v>
+        <v>0.1899999999999996</v>
       </c>
       <c r="BN5" t="n">
         <v>5.94</v>
@@ -2901,7 +2901,7 @@
         <v>-20.89</v>
       </c>
       <c r="BP5" t="n">
-        <v>2.75</v>
+        <v>0.7400000000000002</v>
       </c>
       <c r="BQ5" t="n">
         <v>13.05</v>
@@ -2910,7 +2910,7 @@
         <v>-37.52</v>
       </c>
       <c r="BS5" t="n">
-        <v>6.649999999999999</v>
+        <v>0.1499999999999919</v>
       </c>
       <c r="BT5" t="n">
         <v>43.46</v>
@@ -2955,7 +2955,7 @@
         <v>-71.98999999999999</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="CI5" t="n">
         <v>4.05</v>
@@ -2982,7 +2982,7 @@
         <v>-10.77</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.2000000000000008</v>
+        <v>0.02000000000000179</v>
       </c>
       <c r="CR5" t="n">
         <v>14.8</v>
@@ -3009,7 +3009,7 @@
         <v>-5.14</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.3400000000000003</v>
+        <v>0.01000000000000256</v>
       </c>
       <c r="DA5" t="n">
         <v>2.67</v>
@@ -3027,7 +3027,7 @@
         <v>-1.25</v>
       </c>
       <c r="DF5" t="n">
-        <v>3.75</v>
+        <v>0.6900000000000031</v>
       </c>
       <c r="DG5" t="n">
         <v>22.07</v>
@@ -3054,7 +3054,7 @@
         <v>-28.39</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.07999999999999981</v>
+        <v>0.04999999999999974</v>
       </c>
       <c r="DP5" t="n">
         <v>0.88</v>
@@ -3199,7 +3199,7 @@
         <v>-7.26</v>
       </c>
       <c r="E6" t="n">
-        <v>2.829999999999998</v>
+        <v>0.1899999999999897</v>
       </c>
       <c r="F6" t="n">
         <v>48.49</v>
@@ -3217,7 +3217,7 @@
         <v>45.28</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.08999999999999869</v>
       </c>
       <c r="L6" t="n">
         <v>4.03</v>
@@ -3244,7 +3244,7 @@
         <v>11.14</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4400000000000002</v>
+        <v>0.1099999999999993</v>
       </c>
       <c r="U6" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
         <v>24.11</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5300000000000002</v>
+        <v>0.05000000000000163</v>
       </c>
       <c r="AA6" t="n">
         <v>6.09</v>
@@ -3271,7 +3271,7 @@
         <v>17.87</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.02</v>
+        <v>1.019999999999992</v>
       </c>
       <c r="AD6" t="n">
         <v>10</v>
@@ -3280,7 +3280,7 @@
         <v>-7.78</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.27</v>
+        <v>0.009999999999999246</v>
       </c>
       <c r="AG6" t="n">
         <v>1.66</v>
@@ -3307,7 +3307,7 @@
         <v>27.87</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.500000000000003</v>
+        <v>2.350000000000005</v>
       </c>
       <c r="AP6" t="n">
         <v>29.39</v>
@@ -3316,7 +3316,7 @@
         <v>1.43</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.26</v>
+        <v>0.8299999999999992</v>
       </c>
       <c r="AS6" t="n">
         <v>9.56</v>
@@ -3334,7 +3334,7 @@
         <v>-10.73</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.17</v>
+        <v>0.6099999999999959</v>
       </c>
       <c r="AY6" t="n">
         <v>9.869999999999999</v>
@@ -3343,7 +3343,7 @@
         <v>16.6</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.7799999999999994</v>
+        <v>0.7400000000000002</v>
       </c>
       <c r="BB6" t="n">
         <v>5.33</v>
@@ -3352,7 +3352,7 @@
         <v>7.15</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.2099999999999986</v>
+        <v>0.06999999999999759</v>
       </c>
       <c r="BE6" t="n">
         <v>1.61</v>
@@ -3361,7 +3361,7 @@
         <v>-56.61</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.100000000000002</v>
+        <v>0.2200000000000084</v>
       </c>
       <c r="BH6" t="n">
         <v>6.75</v>
@@ -3370,7 +3370,7 @@
         <v>-14.39</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.6899999999999995</v>
+        <v>0.2099999999999991</v>
       </c>
       <c r="BK6" t="n">
         <v>4.15</v>
@@ -3379,7 +3379,7 @@
         <v>-16.09</v>
       </c>
       <c r="BM6" t="n">
-        <v>6.880000000000001</v>
+        <v>5.700000000000003</v>
       </c>
       <c r="BN6" t="n">
         <v>6.31</v>
@@ -3388,7 +3388,7 @@
         <v>-22.28</v>
       </c>
       <c r="BP6" t="n">
-        <v>2.469999999999999</v>
+        <v>0.9899999999999989</v>
       </c>
       <c r="BQ6" t="n">
         <v>14.8</v>
@@ -3406,7 +3406,7 @@
         <v>-9.109999999999999</v>
       </c>
       <c r="BV6" t="n">
-        <v>3.169999999999999</v>
+        <v>2.529999999999999</v>
       </c>
       <c r="BW6" t="n">
         <v>38.89</v>
@@ -3415,7 +3415,7 @@
         <v>40.74</v>
       </c>
       <c r="BY6" t="n">
-        <v>3.050000000000001</v>
+        <v>0.6900000000000011</v>
       </c>
       <c r="BZ6" t="n">
         <v>28.97</v>
@@ -3424,7 +3424,7 @@
         <v>14.02</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.5199999999999996</v>
+        <v>0.2499999999999991</v>
       </c>
       <c r="CC6" t="n">
         <v>6.45</v>
@@ -3433,7 +3433,7 @@
         <v>18.62</v>
       </c>
       <c r="CE6" t="n">
-        <v>4.970000000000013</v>
+        <v>0.110000000000027</v>
       </c>
       <c r="CF6" t="n">
         <v>23.44</v>
@@ -3442,7 +3442,7 @@
         <v>-67.39</v>
       </c>
       <c r="CH6" t="n">
-        <v>2.639999999999999</v>
+        <v>0.639999999999999</v>
       </c>
       <c r="CI6" t="n">
         <v>4.3</v>
@@ -3469,7 +3469,7 @@
         <v>-2.82</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.2800000000000009</v>
+        <v>0.01999999999999475</v>
       </c>
       <c r="CR6" t="n">
         <v>16.99</v>
@@ -3478,7 +3478,7 @@
         <v>30.47</v>
       </c>
       <c r="CT6" t="n">
-        <v>2.300000000000001</v>
+        <v>0.4700000000000011</v>
       </c>
       <c r="CU6" t="n">
         <v>15.06</v>
@@ -3487,7 +3487,7 @@
         <v>-4.38</v>
       </c>
       <c r="CW6" t="n">
-        <v>4.329999999999998</v>
+        <v>4.129999999999982</v>
       </c>
       <c r="CX6" t="n">
         <v>39.82</v>
@@ -3496,7 +3496,7 @@
         <v>-6.04</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.3099999999999996</v>
+        <v>0.0299999999999955</v>
       </c>
       <c r="DA6" t="n">
         <v>3.07</v>
@@ -3514,7 +3514,7 @@
         <v>-10.51</v>
       </c>
       <c r="DF6" t="n">
-        <v>3.52</v>
+        <v>0.09999999999999609</v>
       </c>
       <c r="DG6" t="n">
         <v>25.6</v>
@@ -3523,7 +3523,7 @@
         <v>-8.51</v>
       </c>
       <c r="DI6" t="n">
-        <v>1.169999999999998</v>
+        <v>0.3499999999999879</v>
       </c>
       <c r="DJ6" t="n">
         <v>15.91</v>
@@ -3541,7 +3541,7 @@
         <v>-26.08</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.09000000000000011</v>
+        <v>0.0100000000000003</v>
       </c>
       <c r="DP6" t="n">
         <v>1.05</v>
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.169999999999998</v>
+        <v>0.9500000000000057</v>
       </c>
       <c r="C7" t="n">
         <v>28.47</v>
@@ -3686,7 +3686,7 @@
         <v>-8.119999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>1.890000000000008</v>
+        <v>1.700000000000018</v>
       </c>
       <c r="F7" t="n">
         <v>57.7</v>
@@ -3695,7 +3695,7 @@
         <v>3.97</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.07999999999999916</v>
       </c>
       <c r="I7" t="n">
         <v>8.32</v>
@@ -3704,7 +3704,7 @@
         <v>21.61</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3999999999999995</v>
+        <v>0.0999999999999997</v>
       </c>
       <c r="L7" t="n">
         <v>4.46</v>
@@ -3722,7 +3722,7 @@
         <v>-85.98999999999999</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.68</v>
+        <v>1.089999999999972</v>
       </c>
       <c r="R7" t="n">
         <v>66.33</v>
@@ -3740,7 +3740,7 @@
         <v>48.81</v>
       </c>
       <c r="W7" t="n">
-        <v>1.219999999999999</v>
+        <v>0.2200000000000035</v>
       </c>
       <c r="X7" t="n">
         <v>12.51</v>
@@ -3749,7 +3749,7 @@
         <v>20.33</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.07999999999999918</v>
+        <v>0.02999999999999755</v>
       </c>
       <c r="AA7" t="n">
         <v>6.64</v>
@@ -3758,7 +3758,7 @@
         <v>16.47</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.120000000000001</v>
+        <v>0.100000000000001</v>
       </c>
       <c r="AD7" t="n">
         <v>11.36</v>
@@ -3767,7 +3767,7 @@
         <v>-4.19</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.2400000000000002</v>
+        <v>0.09000000000000165</v>
       </c>
       <c r="AG7" t="n">
         <v>1.86</v>
@@ -3776,7 +3776,7 @@
         <v>-5.92</v>
       </c>
       <c r="AI7" t="n">
-        <v>75.66999999999996</v>
+        <v>1.389999999999329</v>
       </c>
       <c r="AJ7" t="n">
         <v>735.9299999999999</v>
@@ -3785,7 +3785,7 @@
         <v>-3.35</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.08999999999999986</v>
+        <v>0.0100000000000009</v>
       </c>
       <c r="AM7" t="n">
         <v>4.32</v>
@@ -3812,7 +3812,7 @@
         <v>-8.35</v>
       </c>
       <c r="AU7" t="n">
-        <v>3.06</v>
+        <v>2.94</v>
       </c>
       <c r="AV7" t="n">
         <v>3.09</v>
@@ -3839,7 +3839,7 @@
         <v>6.49</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.2000000000000071</v>
       </c>
       <c r="BE7" t="n">
         <v>1.71</v>
@@ -3848,7 +3848,7 @@
         <v>-64.5</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.41</v>
+        <v>0.3099999999999978</v>
       </c>
       <c r="BH7" t="n">
         <v>7.58</v>
@@ -3884,7 +3884,7 @@
         <v>-35.26</v>
       </c>
       <c r="BS7" t="n">
-        <v>2.070000000000001</v>
+        <v>0.5000000000000011</v>
       </c>
       <c r="BT7" t="n">
         <v>63.07</v>
@@ -3902,7 +3902,7 @@
         <v>44.83</v>
       </c>
       <c r="BY7" t="n">
-        <v>2.960000000000001</v>
+        <v>0.399999999999999</v>
       </c>
       <c r="BZ7" t="n">
         <v>32.15</v>
@@ -3920,7 +3920,7 @@
         <v>19.62</v>
       </c>
       <c r="CE7" t="n">
-        <v>1.549999999999997</v>
+        <v>1.329999999999943</v>
       </c>
       <c r="CF7" t="n">
         <v>38.26</v>
@@ -3938,7 +3938,7 @@
         <v>-40.04</v>
       </c>
       <c r="CK7" t="n">
-        <v>2.41</v>
+        <v>1.130000000000002</v>
       </c>
       <c r="CL7" t="n">
         <v>35.7</v>
@@ -3947,7 +3947,7 @@
         <v>20.36</v>
       </c>
       <c r="CN7" t="n">
-        <v>8.700000000000001</v>
+        <v>7.420000000000008</v>
       </c>
       <c r="CO7" t="n">
         <v>10.17</v>
@@ -3956,7 +3956,7 @@
         <v>1.39</v>
       </c>
       <c r="CQ7" t="n">
-        <v>1.759999999999998</v>
+        <v>1.300000000000002</v>
       </c>
       <c r="CR7" t="n">
         <v>19.22</v>
@@ -3965,7 +3965,7 @@
         <v>26.38</v>
       </c>
       <c r="CT7" t="n">
-        <v>1.559999999999998</v>
+        <v>0.009999999999996012</v>
       </c>
       <c r="CU7" t="n">
         <v>17.96</v>
@@ -3983,7 +3983,7 @@
         <v>-2.86</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.4000000000000004</v>
+        <v>0.02000000000000335</v>
       </c>
       <c r="DA7" t="n">
         <v>4.23</v>
@@ -3992,7 +3992,7 @@
         <v>1.15</v>
       </c>
       <c r="DC7" t="n">
-        <v>1.879999999999999</v>
+        <v>0.8399999999999992</v>
       </c>
       <c r="DD7" t="n">
         <v>14.7</v>
@@ -4001,7 +4001,7 @@
         <v>-13.3</v>
       </c>
       <c r="DF7" t="n">
-        <v>1.879999999999999</v>
+        <v>0.3000000000000009</v>
       </c>
       <c r="DG7" t="n">
         <v>29.28</v>
@@ -4010,7 +4010,7 @@
         <v>-7.05</v>
       </c>
       <c r="DI7" t="n">
-        <v>1.630000000000003</v>
+        <v>0.1100000000000173</v>
       </c>
       <c r="DJ7" t="n">
         <v>19.13</v>
@@ -4028,7 +4028,7 @@
         <v>-19.85</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.05999999999999918</v>
       </c>
       <c r="DP7" t="n">
         <v>1.14</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.830000000000005</v>
+        <v>0.2700000000000031</v>
       </c>
       <c r="C8" t="n">
         <v>31.61</v>
@@ -4173,7 +4173,7 @@
         <v>-10.07</v>
       </c>
       <c r="E8" t="n">
-        <v>6.219999999999999</v>
+        <v>0.5499999999999761</v>
       </c>
       <c r="F8" t="n">
         <v>65.2</v>
@@ -4182,7 +4182,7 @@
         <v>1.23</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5900000000000007</v>
+        <v>0.1800000000000034</v>
       </c>
       <c r="I8" t="n">
         <v>8.27</v>
@@ -4191,7 +4191,7 @@
         <v>9.66</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3100000000000005</v>
+        <v>0.06000000000000089</v>
       </c>
       <c r="L8" t="n">
         <v>4.63</v>
@@ -4209,7 +4209,7 @@
         <v>-77.29000000000001</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.569999999999993</v>
+        <v>0.4200000000000026</v>
       </c>
       <c r="R8" t="n">
         <v>75.31999999999999</v>
@@ -4218,7 +4218,7 @@
         <v>26.52</v>
       </c>
       <c r="T8" t="n">
-        <v>0.9600000000000009</v>
+        <v>0.8800000000000026</v>
       </c>
       <c r="U8" t="n">
         <v>12.5</v>
@@ -4236,7 +4236,7 @@
         <v>20.85</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.5100000000000007</v>
+        <v>0.2400000000000056</v>
       </c>
       <c r="AA8" t="n">
         <v>7.64</v>
@@ -4245,7 +4245,7 @@
         <v>21.15</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.2200000000000006</v>
+        <v>0.01999999999999859</v>
       </c>
       <c r="AD8" t="n">
         <v>12.69</v>
@@ -4254,7 +4254,7 @@
         <v>-9.35</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.1599999999999997</v>
+        <v>0.009999999999999287</v>
       </c>
       <c r="AG8" t="n">
         <v>2.14</v>
@@ -4263,7 +4263,7 @@
         <v>-3.53</v>
       </c>
       <c r="AI8" t="n">
-        <v>61.43999999999994</v>
+        <v>4.340000000000138</v>
       </c>
       <c r="AJ8" t="n">
         <v>836.89</v>
@@ -4272,7 +4272,7 @@
         <v>-0.03</v>
       </c>
       <c r="AL8" t="n">
-        <v>3.63</v>
+        <v>3.469999999999998</v>
       </c>
       <c r="AM8" t="n">
         <v>4.65</v>
@@ -4281,7 +4281,7 @@
         <v>24.73</v>
       </c>
       <c r="AO8" t="n">
-        <v>3.580000000000005</v>
+        <v>1.500000000000021</v>
       </c>
       <c r="AP8" t="n">
         <v>38.79</v>
@@ -4299,7 +4299,7 @@
         <v>-1.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>3.06</v>
+        <v>0.03000000000000025</v>
       </c>
       <c r="AV8" t="n">
         <v>3.51</v>
@@ -4326,7 +4326,7 @@
         <v>8.56</v>
       </c>
       <c r="BD8" t="n">
-        <v>3.36</v>
+        <v>1.22999999999999</v>
       </c>
       <c r="BE8" t="n">
         <v>2.45</v>
@@ -4335,7 +4335,7 @@
         <v>-56.59</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.8899999999999988</v>
+        <v>0.2700000000000032</v>
       </c>
       <c r="BH8" t="n">
         <v>7.98</v>
@@ -4344,7 +4344,7 @@
         <v>-30.94</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.3799999999999999</v>
+        <v>0.05999999999999911</v>
       </c>
       <c r="BK8" t="n">
         <v>8.390000000000001</v>
@@ -4371,7 +4371,7 @@
         <v>-33.52</v>
       </c>
       <c r="BS8" t="n">
-        <v>2.179999999999992</v>
+        <v>0.109999999999991</v>
       </c>
       <c r="BT8" t="n">
         <v>66.48999999999999</v>
@@ -4389,7 +4389,7 @@
         <v>67.31</v>
       </c>
       <c r="BY8" t="n">
-        <v>2</v>
+        <v>0.5100000000000009</v>
       </c>
       <c r="BZ8" t="n">
         <v>37.55</v>
@@ -4398,7 +4398,7 @@
         <v>15.18</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.6200000000000001</v>
+        <v>0.05999999999999769</v>
       </c>
       <c r="CC8" t="n">
         <v>7.92</v>
@@ -4407,7 +4407,7 @@
         <v>19.63</v>
       </c>
       <c r="CE8" t="n">
-        <v>74.72</v>
+        <v>68.63000000000004</v>
       </c>
       <c r="CF8" t="n">
         <v>50.62</v>
@@ -4416,7 +4416,7 @@
         <v>-37.38</v>
       </c>
       <c r="CH8" t="n">
-        <v>1.300000000000001</v>
+        <v>0.4000000000000006</v>
       </c>
       <c r="CI8" t="n">
         <v>4.38</v>
@@ -4452,7 +4452,7 @@
         <v>25.39</v>
       </c>
       <c r="CT8" t="n">
-        <v>2.789999999999999</v>
+        <v>0.750000000000004</v>
       </c>
       <c r="CU8" t="n">
         <v>20.79</v>
@@ -4461,7 +4461,7 @@
         <v>-5.13</v>
       </c>
       <c r="CW8" t="n">
-        <v>3.859999999999999</v>
+        <v>0.9500000000000022</v>
       </c>
       <c r="CX8" t="n">
         <v>49.79</v>
@@ -4470,7 +4470,7 @@
         <v>-4.27</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.25</v>
+        <v>0.0699999999999984</v>
       </c>
       <c r="DA8" t="n">
         <v>4.56</v>
@@ -4479,7 +4479,7 @@
         <v>-6.88</v>
       </c>
       <c r="DC8" t="n">
-        <v>1.280000000000001</v>
+        <v>0.1800000000000019</v>
       </c>
       <c r="DD8" t="n">
         <v>17.73</v>
@@ -4488,7 +4488,7 @@
         <v>-5.86</v>
       </c>
       <c r="DF8" t="n">
-        <v>1.980000000000004</v>
+        <v>0.100000000000005</v>
       </c>
       <c r="DG8" t="n">
         <v>31.69</v>
@@ -4497,7 +4497,7 @@
         <v>-14.13</v>
       </c>
       <c r="DI8" t="n">
-        <v>2.5</v>
+        <v>0.2999999999999746</v>
       </c>
       <c r="DJ8" t="n">
         <v>21.93</v>
@@ -4506,7 +4506,7 @@
         <v>-9.16</v>
       </c>
       <c r="DL8" t="n">
-        <v>1.169999999999998</v>
+        <v>0.929999999999974</v>
       </c>
       <c r="DM8" t="n">
         <v>16.09</v>
@@ -4515,7 +4515,7 @@
         <v>-18.6</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.08999999999999986</v>
+        <v>0.01000000000000008</v>
       </c>
       <c r="DP8" t="n">
         <v>1.22</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.509999999999998</v>
+        <v>1.969999999999992</v>
       </c>
       <c r="C9" t="n">
         <v>32.85</v>
@@ -4660,7 +4660,7 @@
         <v>-13.52</v>
       </c>
       <c r="E9" t="n">
-        <v>5.179999999999993</v>
+        <v>0.3000000000000254</v>
       </c>
       <c r="F9" t="n">
         <v>73.14</v>
@@ -4678,7 +4678,7 @@
         <v>0.49</v>
       </c>
       <c r="K9" t="n">
-        <v>0.339999999999999</v>
+        <v>0.02999999999999853</v>
       </c>
       <c r="L9" t="n">
         <v>5.39</v>
@@ -4696,7 +4696,7 @@
         <v>-68.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.350000000000009</v>
+        <v>3.510000000000004</v>
       </c>
       <c r="R9" t="n">
         <v>85.81999999999999</v>
@@ -4714,7 +4714,7 @@
         <v>83.03</v>
       </c>
       <c r="W9" t="n">
-        <v>0.5700000000000003</v>
+        <v>0.08999999999999631</v>
       </c>
       <c r="X9" t="n">
         <v>15.79</v>
@@ -4732,7 +4732,7 @@
         <v>18.54</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.3999999999999986</v>
+        <v>0.03999999999999981</v>
       </c>
       <c r="AD9" t="n">
         <v>13.53</v>
@@ -4741,7 +4741,7 @@
         <v>-4.83</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.04000000000000051</v>
+        <v>0.03000000000000122</v>
       </c>
       <c r="AG9" t="n">
         <v>2.21</v>
@@ -4750,7 +4750,7 @@
         <v>-7.09</v>
       </c>
       <c r="AI9" t="n">
-        <v>46.37</v>
+        <v>37.68999999999972</v>
       </c>
       <c r="AJ9" t="n">
         <v>935.04</v>
@@ -4777,7 +4777,7 @@
         <v>-1.38</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.5599999999999992</v>
+        <v>0.219999999999998</v>
       </c>
       <c r="AS9" t="n">
         <v>14.94</v>
@@ -4786,7 +4786,7 @@
         <v>4.53</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.2399999999999998</v>
+        <v>0.1799999999999992</v>
       </c>
       <c r="AV9" t="n">
         <v>3.74</v>
@@ -4795,7 +4795,7 @@
         <v>22.31</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.6499999999999984</v>
+        <v>0.1799999999999978</v>
       </c>
       <c r="AY9" t="n">
         <v>13.61</v>
@@ -4831,7 +4831,7 @@
         <v>-30.68</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.2200000000000006</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="BK9" t="n">
         <v>10.66</v>
@@ -4858,7 +4858,7 @@
         <v>-35.59</v>
       </c>
       <c r="BS9" t="n">
-        <v>4.580000000000013</v>
+        <v>2.070000000000048</v>
       </c>
       <c r="BT9" t="n">
         <v>78.92</v>
@@ -4867,7 +4867,7 @@
         <v>10.64</v>
       </c>
       <c r="BV9" t="n">
-        <v>1.719999999999999</v>
+        <v>0.259999999999998</v>
       </c>
       <c r="BW9" t="n">
         <v>68.81999999999999</v>
@@ -4876,7 +4876,7 @@
         <v>73.81</v>
       </c>
       <c r="BY9" t="n">
-        <v>3.030000000000001</v>
+        <v>0.120000000000001</v>
       </c>
       <c r="BZ9" t="n">
         <v>40.08</v>
@@ -4885,7 +4885,7 @@
         <v>6.73</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.3399999999999999</v>
+        <v>9.992007221626409e-16</v>
       </c>
       <c r="CC9" t="n">
         <v>8.67</v>
@@ -4894,7 +4894,7 @@
         <v>19.68</v>
       </c>
       <c r="CE9" t="n">
-        <v>71.37</v>
+        <v>1.299999999999997</v>
       </c>
       <c r="CF9" t="n">
         <v>65.48999999999999</v>
@@ -4903,7 +4903,7 @@
         <v>-14.14</v>
       </c>
       <c r="CH9" t="n">
-        <v>5.899999999999999</v>
+        <v>3.399999999999998</v>
       </c>
       <c r="CI9" t="n">
         <v>5.42</v>
@@ -4912,7 +4912,7 @@
         <v>-54.73</v>
       </c>
       <c r="CK9" t="n">
-        <v>2.130000000000003</v>
+        <v>1.850000000000015</v>
       </c>
       <c r="CL9" t="n">
         <v>44.87</v>
@@ -4921,7 +4921,7 @@
         <v>29.88</v>
       </c>
       <c r="CN9" t="n">
-        <v>8.390000000000001</v>
+        <v>0.7500000000000002</v>
       </c>
       <c r="CO9" t="n">
         <v>11.07</v>
@@ -4930,7 +4930,7 @@
         <v>-2.23</v>
       </c>
       <c r="CQ9" t="n">
-        <v>1.48</v>
+        <v>0.439999999999992</v>
       </c>
       <c r="CR9" t="n">
         <v>21.8</v>
@@ -4957,7 +4957,7 @@
         <v>-3.38</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.1800000000000006</v>
+        <v>0.02000000000000141</v>
       </c>
       <c r="DA9" t="n">
         <v>4.72</v>
@@ -4975,7 +4975,7 @@
         <v>-6.69</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.1899999999999911</v>
+        <v>0.08999999999998609</v>
       </c>
       <c r="DG9" t="n">
         <v>34.37</v>
@@ -4984,7 +4984,7 @@
         <v>-11.58</v>
       </c>
       <c r="DI9" t="n">
-        <v>2.469999999999999</v>
+        <v>0.780000000000018</v>
       </c>
       <c r="DJ9" t="n">
         <v>24.17</v>
@@ -5002,7 +5002,7 @@
         <v>-15.98</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.009999999999999941</v>
       </c>
       <c r="DP9" t="n">
         <v>1.27</v>
@@ -5147,7 +5147,7 @@
         <v>-10</v>
       </c>
       <c r="E10" t="n">
-        <v>1.13000000000001</v>
+        <v>0.2800000000000087</v>
       </c>
       <c r="F10" t="n">
         <v>78.14</v>
@@ -5165,7 +5165,7 @@
         <v>1.41</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1100000000000003</v>
+        <v>0.02000000000000472</v>
       </c>
       <c r="L10" t="n">
         <v>5.96</v>
@@ -5201,7 +5201,7 @@
         <v>93.81999999999999</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5199999999999996</v>
+        <v>0.0100000000000087</v>
       </c>
       <c r="X10" t="n">
         <v>17.25</v>
@@ -5210,7 +5210,7 @@
         <v>26.37</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.3700000000000001</v>
+        <v>0.1500000000000012</v>
       </c>
       <c r="AA10" t="n">
         <v>8.710000000000001</v>
@@ -5219,7 +5219,7 @@
         <v>15.39</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.120000000000001</v>
+        <v>0.06000000000000259</v>
       </c>
       <c r="AD10" t="n">
         <v>14.3</v>
@@ -5228,7 +5228,7 @@
         <v>-3.64</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.1799999999999997</v>
+        <v>0.01999999999999768</v>
       </c>
       <c r="AG10" t="n">
         <v>2.6</v>
@@ -5246,7 +5246,7 @@
         <v>7.61</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.1799999999999997</v>
+        <v>0.09999999999999969</v>
       </c>
       <c r="AM10" t="n">
         <v>4.7</v>
@@ -5255,7 +5255,7 @@
         <v>25.57</v>
       </c>
       <c r="AO10" t="n">
-        <v>2.43</v>
+        <v>0.7700000000000173</v>
       </c>
       <c r="AP10" t="n">
         <v>45.47</v>
@@ -5264,7 +5264,7 @@
         <v>-2.3</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.5299999999999994</v>
+        <v>0.09000000000000338</v>
       </c>
       <c r="AS10" t="n">
         <v>16.3</v>
@@ -5273,7 +5273,7 @@
         <v>2.65</v>
       </c>
       <c r="AU10" t="n">
-        <v>2.96</v>
+        <v>2.030000000000001</v>
       </c>
       <c r="AV10" t="n">
         <v>3.96</v>
@@ -5291,7 +5291,7 @@
         <v>26.79</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.46</v>
+        <v>0.17</v>
       </c>
       <c r="BB10" t="n">
         <v>8.44</v>
@@ -5300,7 +5300,7 @@
         <v>19.28</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.29</v>
+        <v>0.07000000000000017</v>
       </c>
       <c r="BE10" t="n">
         <v>3.56</v>
@@ -5309,7 +5309,7 @@
         <v>-19.19</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.4300000000000015</v>
+        <v>0.02999999999999892</v>
       </c>
       <c r="BH10" t="n">
         <v>8.800000000000001</v>
@@ -5318,7 +5318,7 @@
         <v>-34.95</v>
       </c>
       <c r="BJ10" t="n">
-        <v>6.68</v>
+        <v>6.239999999999998</v>
       </c>
       <c r="BK10" t="n">
         <v>13.73</v>
@@ -5336,7 +5336,7 @@
         <v>-15.4</v>
       </c>
       <c r="BP10" t="n">
-        <v>5.030000000000001</v>
+        <v>3.709999999999994</v>
       </c>
       <c r="BQ10" t="n">
         <v>17.9</v>
@@ -5354,7 +5354,7 @@
         <v>8.35</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.7199999999999989</v>
+        <v>0.2000000000000029</v>
       </c>
       <c r="BW10" t="n">
         <v>73.51000000000001</v>
@@ -5363,7 +5363,7 @@
         <v>77.90000000000001</v>
       </c>
       <c r="BY10" t="n">
-        <v>1.399999999999999</v>
+        <v>0.3699999999999981</v>
       </c>
       <c r="BZ10" t="n">
         <v>43.88</v>
@@ -5372,7 +5372,7 @@
         <v>8.130000000000001</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.3099999999999996</v>
+        <v>0.3099999999999986</v>
       </c>
       <c r="CC10" t="n">
         <v>10.25</v>
@@ -5426,7 +5426,7 @@
         <v>8.5</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.3199999999999998</v>
+        <v>0.1099999999999989</v>
       </c>
       <c r="CU10" t="n">
         <v>23.63</v>
@@ -5435,7 +5435,7 @@
         <v>-14.67</v>
       </c>
       <c r="CW10" t="n">
-        <v>2.390000000000001</v>
+        <v>0.609999999999999</v>
       </c>
       <c r="CX10" t="n">
         <v>57.99</v>
@@ -5444,7 +5444,7 @@
         <v>-4.35</v>
       </c>
       <c r="CZ10" t="n">
-        <v>5.109999999999999</v>
+        <v>4.549999999999996</v>
       </c>
       <c r="DA10" t="n">
         <v>4.89</v>
@@ -5453,7 +5453,7 @@
         <v>-8</v>
       </c>
       <c r="DC10" t="n">
-        <v>1.309999999999999</v>
+        <v>0.5999999999999979</v>
       </c>
       <c r="DD10" t="n">
         <v>21.85</v>
@@ -5462,7 +5462,7 @@
         <v>-1.13</v>
       </c>
       <c r="DF10" t="n">
-        <v>1.560000000000002</v>
+        <v>1.000000000000048</v>
       </c>
       <c r="DG10" t="n">
         <v>36.7</v>
@@ -5471,7 +5471,7 @@
         <v>-10.6</v>
       </c>
       <c r="DI10" t="n">
-        <v>2.34</v>
+        <v>0.7399999999999978</v>
       </c>
       <c r="DJ10" t="n">
         <v>27.45</v>
@@ -5480,7 +5480,7 @@
         <v>-5.7</v>
       </c>
       <c r="DL10" t="n">
-        <v>20.56</v>
+        <v>18.88</v>
       </c>
       <c r="DM10" t="n">
         <v>19.59</v>
@@ -5625,7 +5625,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.69</v>
+        <v>31.97</v>
       </c>
       <c r="C11" t="n">
         <v>38.32</v>
@@ -5634,7 +5634,7 @@
         <v>-9.69</v>
       </c>
       <c r="E11" t="n">
-        <v>6.090000000000003</v>
+        <v>2.419999999999965</v>
       </c>
       <c r="F11" t="n">
         <v>80.5</v>
@@ -5643,7 +5643,7 @@
         <v>-1.97</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4900000000000002</v>
+        <v>0.1699999999999998</v>
       </c>
       <c r="I11" t="n">
         <v>8.970000000000001</v>
@@ -5652,7 +5652,7 @@
         <v>6.77</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3199999999999994</v>
+        <v>0.01999999999999702</v>
       </c>
       <c r="L11" t="n">
         <v>6.34</v>
@@ -5670,7 +5670,7 @@
         <v>-60.29</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.49999999999999</v>
+        <v>9.660000000000023</v>
       </c>
       <c r="R11" t="n">
         <v>107.47</v>
@@ -5679,7 +5679,7 @@
         <v>47.21</v>
       </c>
       <c r="T11" t="n">
-        <v>0.9899999999999984</v>
+        <v>0.4299999999999979</v>
       </c>
       <c r="U11" t="n">
         <v>18.04</v>
@@ -5688,7 +5688,7 @@
         <v>95.45</v>
       </c>
       <c r="W11" t="n">
-        <v>3.950000000000001</v>
+        <v>2.619999999999995</v>
       </c>
       <c r="X11" t="n">
         <v>17.46</v>
@@ -5697,7 +5697,7 @@
         <v>23.21</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.4899999999999993</v>
+        <v>0.1199999999999992</v>
       </c>
       <c r="AA11" t="n">
         <v>9.880000000000001</v>
@@ -5706,7 +5706,7 @@
         <v>24.69</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.6500000000000004</v>
+        <v>0.1699999999999964</v>
       </c>
       <c r="AD11" t="n">
         <v>15.59</v>
@@ -5715,7 +5715,7 @@
         <v>0.09</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.4</v>
+        <v>1.920000000000004</v>
       </c>
       <c r="AG11" t="n">
         <v>2.93</v>
@@ -5724,7 +5724,7 @@
         <v>-0.99</v>
       </c>
       <c r="AI11" t="n">
-        <v>16.11000000000001</v>
+        <v>5.669999999999929</v>
       </c>
       <c r="AJ11" t="n">
         <v>1081.77</v>
@@ -5733,7 +5733,7 @@
         <v>8.84</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.2600000000000007</v>
+        <v>0.08000000000000099</v>
       </c>
       <c r="AM11" t="n">
         <v>4.83</v>
@@ -5742,7 +5742,7 @@
         <v>22.72</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.910000000000004</v>
+        <v>0.3099999999999949</v>
       </c>
       <c r="AP11" t="n">
         <v>47.78</v>
@@ -5751,7 +5751,7 @@
         <v>-2.44</v>
       </c>
       <c r="AR11" t="n">
-        <v>1.040000000000001</v>
+        <v>0.1099999999999968</v>
       </c>
       <c r="AS11" t="n">
         <v>17.83</v>
@@ -5769,7 +5769,7 @@
         <v>34.21</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.2300000000000004</v>
+        <v>0.06999999999999679</v>
       </c>
       <c r="AY11" t="n">
         <v>15.94</v>
@@ -5778,7 +5778,7 @@
         <v>22.45</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.5999999999999996</v>
+        <v>0.1399999999999996</v>
       </c>
       <c r="BB11" t="n">
         <v>8.539999999999999</v>
@@ -5787,7 +5787,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="BD11" t="n">
-        <v>2.92</v>
+        <v>2.42</v>
       </c>
       <c r="BE11" t="n">
         <v>3.79</v>
@@ -5796,7 +5796,7 @@
         <v>-22.98</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.2299999999999986</v>
+        <v>0.1700000000000008</v>
       </c>
       <c r="BH11" t="n">
         <v>8.949999999999999</v>
@@ -5814,7 +5814,7 @@
         <v>117.59</v>
       </c>
       <c r="BM11" t="n">
-        <v>7.27</v>
+        <v>6.909999999999993</v>
       </c>
       <c r="BN11" t="n">
         <v>9.67</v>
@@ -5823,7 +5823,7 @@
         <v>-19.86</v>
       </c>
       <c r="BP11" t="n">
-        <v>23.42</v>
+        <v>5.280000000000006</v>
       </c>
       <c r="BQ11" t="n">
         <v>21.53</v>
@@ -5832,7 +5832,7 @@
         <v>-40.21</v>
       </c>
       <c r="BS11" t="n">
-        <v>2.27000000000001</v>
+        <v>0.29000000000002</v>
       </c>
       <c r="BT11" t="n">
         <v>86.83</v>
@@ -5841,7 +5841,7 @@
         <v>12.92</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.2100000000000009</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="BW11" t="n">
         <v>76.51000000000001</v>
@@ -5850,7 +5850,7 @@
         <v>81.98</v>
       </c>
       <c r="BY11" t="n">
-        <v>2.109999999999999</v>
+        <v>0.3400000000000019</v>
       </c>
       <c r="BZ11" t="n">
         <v>48.88</v>
@@ -5859,7 +5859,7 @@
         <v>16.41</v>
       </c>
       <c r="CB11" t="n">
-        <v>7.510000000000001</v>
+        <v>6.270000000000001</v>
       </c>
       <c r="CC11" t="n">
         <v>10.72</v>
@@ -5877,7 +5877,7 @@
         <v>10.58</v>
       </c>
       <c r="CH11" t="n">
-        <v>4.059999999999999</v>
+        <v>0.6699999999999977</v>
       </c>
       <c r="CI11" t="n">
         <v>4.36</v>
@@ -5886,7 +5886,7 @@
         <v>-62.03</v>
       </c>
       <c r="CK11" t="n">
-        <v>2.060000000000002</v>
+        <v>1.74000000000001</v>
       </c>
       <c r="CL11" t="n">
         <v>52.91</v>
@@ -5895,7 +5895,7 @@
         <v>36.07</v>
       </c>
       <c r="CN11" t="n">
-        <v>9.600000000000001</v>
+        <v>1.920000000000005</v>
       </c>
       <c r="CO11" t="n">
         <v>12.08</v>
@@ -5904,7 +5904,7 @@
         <v>-6.02</v>
       </c>
       <c r="CQ11" t="n">
-        <v>2.999999999999996</v>
+        <v>1.679999999999988</v>
       </c>
       <c r="CR11" t="n">
         <v>24.54</v>
@@ -5913,7 +5913,7 @@
         <v>17.98</v>
       </c>
       <c r="CT11" t="n">
-        <v>1.7</v>
+        <v>1.050000000000003</v>
       </c>
       <c r="CU11" t="n">
         <v>24.75</v>
@@ -5922,7 +5922,7 @@
         <v>-20.21</v>
       </c>
       <c r="CW11" t="n">
-        <v>1.699999999999995</v>
+        <v>0.1999999999999951</v>
       </c>
       <c r="CX11" t="n">
         <v>60.63</v>
@@ -5940,7 +5940,7 @@
         <v>-13.04</v>
       </c>
       <c r="DC11" t="n">
-        <v>3.09</v>
+        <v>0.5800000000000052</v>
       </c>
       <c r="DD11" t="n">
         <v>23.81</v>
@@ -5949,7 +5949,7 @@
         <v>1.7</v>
       </c>
       <c r="DF11" t="n">
-        <v>1.230000000000004</v>
+        <v>0.04999999999998406</v>
       </c>
       <c r="DG11" t="n">
         <v>38.64</v>
@@ -5958,7 +5958,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="DI11" t="n">
-        <v>1.930000000000003</v>
+        <v>1.190000000000005</v>
       </c>
       <c r="DJ11" t="n">
         <v>29.76</v>
@@ -5967,7 +5967,7 @@
         <v>-5.36</v>
       </c>
       <c r="DL11" t="n">
-        <v>20.69</v>
+        <v>0.1300000000000026</v>
       </c>
       <c r="DM11" t="n">
         <v>20.54</v>
@@ -5976,7 +5976,7 @@
         <v>-2.11</v>
       </c>
       <c r="DO11" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="DP11" t="n">
         <v>1.59</v>
@@ -6121,7 +6121,7 @@
         <v>-1.24</v>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>2.120000000000022</v>
       </c>
       <c r="F12" t="n">
         <v>77.7</v>
@@ -6130,7 +6130,7 @@
         <v>-11.91</v>
       </c>
       <c r="H12" t="n">
-        <v>4.819999999999999</v>
+        <v>3.339999999999999</v>
       </c>
       <c r="I12" t="n">
         <v>9.539999999999999</v>
@@ -6139,7 +6139,7 @@
         <v>6.44</v>
       </c>
       <c r="K12" t="n">
-        <v>1.15</v>
+        <v>0.5000000000000057</v>
       </c>
       <c r="L12" t="n">
         <v>5.88</v>
@@ -6166,7 +6166,7 @@
         <v>27.14</v>
       </c>
       <c r="T12" t="n">
-        <v>2.060000000000001</v>
+        <v>0.2100000000000071</v>
       </c>
       <c r="U12" t="n">
         <v>17.79</v>
@@ -6184,7 +6184,7 @@
         <v>-1.15</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.620000000000001</v>
+        <v>0.7700000000000045</v>
       </c>
       <c r="AA12" t="n">
         <v>9.74</v>
@@ -6193,7 +6193,7 @@
         <v>10.85</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.76</v>
+        <v>1.880000000000005</v>
       </c>
       <c r="AD12" t="n">
         <v>16.86</v>
@@ -6211,7 +6211,7 @@
         <v>10</v>
       </c>
       <c r="AI12" t="n">
-        <v>201.1199999999999</v>
+        <v>152.3399999999999</v>
       </c>
       <c r="AJ12" t="n">
         <v>1112.41</v>
@@ -6220,7 +6220,7 @@
         <v>5.04</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.35</v>
+        <v>0.8499999999999961</v>
       </c>
       <c r="AM12" t="n">
         <v>5.01</v>
@@ -6229,7 +6229,7 @@
         <v>14.02</v>
       </c>
       <c r="AO12" t="n">
-        <v>11.31</v>
+        <v>6.870000000000003</v>
       </c>
       <c r="AP12" t="n">
         <v>51.76</v>
@@ -6238,7 +6238,7 @@
         <v>1.73</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.609999999999999</v>
+        <v>0.3499999999999952</v>
       </c>
       <c r="AS12" t="n">
         <v>20.5</v>
@@ -6247,7 +6247,7 @@
         <v>14.01</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.09</v>
+        <v>0.7300000000000004</v>
       </c>
       <c r="AV12" t="n">
         <v>4.17</v>
@@ -6256,7 +6256,7 @@
         <v>26.48</v>
       </c>
       <c r="AX12" t="n">
-        <v>3.76</v>
+        <v>3.080000000000002</v>
       </c>
       <c r="AY12" t="n">
         <v>17.53</v>
@@ -6265,7 +6265,7 @@
         <v>32.31</v>
       </c>
       <c r="BA12" t="n">
-        <v>1.34</v>
+        <v>0.3200000000000017</v>
       </c>
       <c r="BB12" t="n">
         <v>9.33</v>
@@ -6283,7 +6283,7 @@
         <v>-4.3</v>
       </c>
       <c r="BG12" t="n">
-        <v>2.870000000000001</v>
+        <v>1.980000000000004</v>
       </c>
       <c r="BH12" t="n">
         <v>10.55</v>
@@ -6319,7 +6319,7 @@
         <v>-41.1</v>
       </c>
       <c r="BS12" t="n">
-        <v>21.54999999999999</v>
+        <v>17.41999999999992</v>
       </c>
       <c r="BT12" t="n">
         <v>85.61</v>
@@ -6328,7 +6328,7 @@
         <v>6.81</v>
       </c>
       <c r="BV12" t="n">
-        <v>15.97</v>
+        <v>15.13</v>
       </c>
       <c r="BW12" t="n">
         <v>78.88</v>
@@ -6337,7 +6337,7 @@
         <v>86.73</v>
       </c>
       <c r="BY12" t="n">
-        <v>9.720000000000002</v>
+        <v>5.850000000000001</v>
       </c>
       <c r="BZ12" t="n">
         <v>51.96</v>
@@ -6355,7 +6355,7 @@
         <v>35.88</v>
       </c>
       <c r="CE12" t="n">
-        <v>5.749999999999995</v>
+        <v>2.73999999999999</v>
       </c>
       <c r="CF12" t="n">
         <v>70.68000000000001</v>
@@ -6364,7 +6364,7 @@
         <v>-3.79</v>
       </c>
       <c r="CH12" t="n">
-        <v>1.22</v>
+        <v>0.5500000000000023</v>
       </c>
       <c r="CI12" t="n">
         <v>4.9</v>
@@ -6373,7 +6373,7 @@
         <v>-34.29</v>
       </c>
       <c r="CK12" t="n">
-        <v>8.239999999999998</v>
+        <v>0.479999999999978</v>
       </c>
       <c r="CL12" t="n">
         <v>57.84</v>
@@ -6382,7 +6382,7 @@
         <v>41.24</v>
       </c>
       <c r="CN12" t="n">
-        <v>4.16</v>
+        <v>2.239999999999995</v>
       </c>
       <c r="CO12" t="n">
         <v>10.88</v>
@@ -6391,7 +6391,7 @@
         <v>-10.52</v>
       </c>
       <c r="CQ12" t="n">
-        <v>3.220000000000002</v>
+        <v>0.220000000000006</v>
       </c>
       <c r="CR12" t="n">
         <v>26.5</v>
@@ -6400,7 +6400,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="CT12" t="n">
-        <v>1.32</v>
+        <v>0.04999999999999916</v>
       </c>
       <c r="CU12" t="n">
         <v>26.14</v>
@@ -6409,7 +6409,7 @@
         <v>-27.48</v>
       </c>
       <c r="CW12" t="n">
-        <v>13.25</v>
+        <v>9.450000000000014</v>
       </c>
       <c r="CX12" t="n">
         <v>63.91</v>
@@ -6418,7 +6418,7 @@
         <v>-4.76</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.9499999999999997</v>
+        <v>0.3499999999999982</v>
       </c>
       <c r="DA12" t="n">
         <v>4.52</v>
@@ -6427,7 +6427,7 @@
         <v>-16.82</v>
       </c>
       <c r="DC12" t="n">
-        <v>3.72</v>
+        <v>0.04999999999999516</v>
       </c>
       <c r="DD12" t="n">
         <v>26.17</v>
@@ -6436,7 +6436,7 @@
         <v>-5.9</v>
       </c>
       <c r="DF12" t="n">
-        <v>7.409999999999997</v>
+        <v>3.670000000000001</v>
       </c>
       <c r="DG12" t="n">
         <v>41.55</v>
@@ -6445,7 +6445,7 @@
         <v>-5.22</v>
       </c>
       <c r="DI12" t="n">
-        <v>4.339999999999996</v>
+        <v>0.47999999999999</v>
       </c>
       <c r="DJ12" t="n">
         <v>32.98</v>
@@ -6454,7 +6454,7 @@
         <v>-1.2</v>
       </c>
       <c r="DL12" t="n">
-        <v>5.38</v>
+        <v>4.989999999999992</v>
       </c>
       <c r="DM12" t="n">
         <v>29.59</v>
@@ -6608,7 +6608,7 @@
         <v>-1.39</v>
       </c>
       <c r="E13" t="n">
-        <v>9.48</v>
+        <v>1.409999999999972</v>
       </c>
       <c r="F13" t="n">
         <v>23.75</v>
@@ -6626,7 +6626,7 @@
         <v>-37.99</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5299999999999998</v>
+        <v>0.009999999999997122</v>
       </c>
       <c r="L13" t="n">
         <v>1.6</v>
@@ -6653,7 +6653,7 @@
         <v>23.93</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9099999999999997</v>
+        <v>0.05999999999998759</v>
       </c>
       <c r="U13" t="n">
         <v>5.27</v>
@@ -6662,7 +6662,7 @@
         <v>45.85</v>
       </c>
       <c r="W13" t="n">
-        <v>2.19</v>
+        <v>1.11</v>
       </c>
       <c r="X13" t="n">
         <v>5.04</v>
@@ -6725,7 +6725,7 @@
         <v>-2.56</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.5</v>
+        <v>0.4400000000000031</v>
       </c>
       <c r="AS13" t="n">
         <v>5.05</v>
@@ -6752,7 +6752,7 @@
         <v>-1.62</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.71</v>
+        <v>0.1099999999999991</v>
       </c>
       <c r="BB13" t="n">
         <v>1.92</v>
@@ -6860,7 +6860,7 @@
         <v>112.51</v>
       </c>
       <c r="CK13" t="n">
-        <v>4.469999999999999</v>
+        <v>0.2700000000000067</v>
       </c>
       <c r="CL13" t="n">
         <v>14.6</v>
@@ -6878,7 +6878,7 @@
         <v>11.51</v>
       </c>
       <c r="CQ13" t="n">
-        <v>2.420000000000001</v>
+        <v>1.759999999999983</v>
       </c>
       <c r="CR13" t="n">
         <v>5.62</v>
@@ -6887,7 +6887,7 @@
         <v>-14.2</v>
       </c>
       <c r="CT13" t="n">
-        <v>2.58</v>
+        <v>1.210000000000001</v>
       </c>
       <c r="CU13" t="n">
         <v>6.45</v>
@@ -6905,7 +6905,7 @@
         <v>-4.4</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.0100000000000009</v>
       </c>
       <c r="DA13" t="n">
         <v>1.09</v>
@@ -6914,7 +6914,7 @@
         <v>-0.55</v>
       </c>
       <c r="DC13" t="n">
-        <v>2.24</v>
+        <v>0.3499999999999994</v>
       </c>
       <c r="DD13" t="n">
         <v>4.73</v>
@@ -6932,7 +6932,7 @@
         <v>-8.85</v>
       </c>
       <c r="DI13" t="n">
-        <v>2.57</v>
+        <v>0.1600000000000068</v>
       </c>
       <c r="DJ13" t="n">
         <v>7.23</v>
@@ -7095,7 +7095,7 @@
         <v>4.6</v>
       </c>
       <c r="E14" t="n">
-        <v>8.170000000000002</v>
+        <v>4.640000000000008</v>
       </c>
       <c r="F14" t="n">
         <v>33.16</v>
@@ -7149,7 +7149,7 @@
         <v>38.8</v>
       </c>
       <c r="W14" t="n">
-        <v>1.58</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="X14" t="n">
         <v>7.51</v>
@@ -7212,7 +7212,7 @@
         <v>-2.7</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.9500000000000002</v>
+        <v>0.5099999999999971</v>
       </c>
       <c r="AS14" t="n">
         <v>7.6</v>
@@ -7239,7 +7239,7 @@
         <v>17.9</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.5300000000000002</v>
+        <v>0.4200000000000012</v>
       </c>
       <c r="BB14" t="n">
         <v>2.5</v>
@@ -7284,7 +7284,7 @@
         <v>-2.2</v>
       </c>
       <c r="BP14" t="n">
-        <v>1.13</v>
+        <v>0.1500000000000004</v>
       </c>
       <c r="BQ14" t="n">
         <v>4.7</v>
@@ -7329,7 +7329,7 @@
         <v>-6.2</v>
       </c>
       <c r="CE14" t="n">
-        <v>4.549999999999999</v>
+        <v>0.1699999999999959</v>
       </c>
       <c r="CF14" t="n">
         <v>26.5</v>
@@ -7338,7 +7338,7 @@
         <v>159.2</v>
       </c>
       <c r="CH14" t="n">
-        <v>1.01</v>
+        <v>0.2699999999999998</v>
       </c>
       <c r="CI14" t="n">
         <v>4.65</v>
@@ -7347,7 +7347,7 @@
         <v>192.1</v>
       </c>
       <c r="CK14" t="n">
-        <v>3.460000000000001</v>
+        <v>3.189999999999994</v>
       </c>
       <c r="CL14" t="n">
         <v>20.97</v>
@@ -7374,7 +7374,7 @@
         <v>-15.8</v>
       </c>
       <c r="CT14" t="n">
-        <v>1.91</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="CU14" t="n">
         <v>9.56</v>
@@ -7392,7 +7392,7 @@
         <v>6.9</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.419999999999999</v>
       </c>
       <c r="DA14" t="n">
         <v>1.53</v>
@@ -7401,7 +7401,7 @@
         <v>-12.8</v>
       </c>
       <c r="DC14" t="n">
-        <v>1.56</v>
+        <v>0.5800000000000003</v>
       </c>
       <c r="DD14" t="n">
         <v>7.59</v>
@@ -7419,7 +7419,7 @@
         <v>10.1</v>
       </c>
       <c r="DI14" t="n">
-        <v>1.82</v>
+        <v>1.499999999999986</v>
       </c>
       <c r="DJ14" t="n">
         <v>10.46</v>
@@ -7591,7 +7591,7 @@
         <v>-0.7</v>
       </c>
       <c r="H15" t="n">
-        <v>5.279999999999999</v>
+        <v>3.719999999999997</v>
       </c>
       <c r="I15" t="n">
         <v>5.75</v>
@@ -7600,7 +7600,7 @@
         <v>-25.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4999999999999996</v>
+        <v>0.04999999999999943</v>
       </c>
       <c r="L15" t="n">
         <v>2.75</v>
@@ -7627,7 +7627,7 @@
         <v>18.3</v>
       </c>
       <c r="T15" t="n">
-        <v>0.73</v>
+        <v>0.1299999999999988</v>
       </c>
       <c r="U15" t="n">
         <v>6.94</v>
@@ -7645,7 +7645,7 @@
         <v>11.3</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.8099999999999996</v>
+        <v>0.1499999999999997</v>
       </c>
       <c r="AA15" t="n">
         <v>4.16</v>
@@ -7654,7 +7654,7 @@
         <v>-2.9</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.08000000000000008</v>
       </c>
       <c r="AD15" t="n">
         <v>7.89</v>
@@ -7753,7 +7753,7 @@
         <v>-10.9</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.4900000000000002</v>
+        <v>0.09999999999999928</v>
       </c>
       <c r="BK15" t="n">
         <v>5.31</v>
@@ -7771,7 +7771,7 @@
         <v>-8.1</v>
       </c>
       <c r="BP15" t="n">
-        <v>1.51</v>
+        <v>0.07999999999999929</v>
       </c>
       <c r="BQ15" t="n">
         <v>5.74</v>
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>6.390000000000001</v>
+        <v>2.869999999999989</v>
       </c>
       <c r="BW15" t="n">
         <v>40.76</v>
@@ -7798,7 +7798,7 @@
         <v>42.1</v>
       </c>
       <c r="BY15" t="n">
-        <v>3.289999999999999</v>
+        <v>1.409999999999987</v>
       </c>
       <c r="BZ15" t="n">
         <v>20.9</v>
@@ -7807,7 +7807,7 @@
         <v>-1.3</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.7399999999999993</v>
+        <v>0.5399999999999991</v>
       </c>
       <c r="CC15" t="n">
         <v>4.58</v>
@@ -7816,7 +7816,7 @@
         <v>-0.6</v>
       </c>
       <c r="CE15" t="n">
-        <v>1.419999999999998</v>
+        <v>1.250000000000002</v>
       </c>
       <c r="CF15" t="n">
         <v>21.49</v>
@@ -7825,7 +7825,7 @@
         <v>32.4</v>
       </c>
       <c r="CH15" t="n">
-        <v>1.38</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="CI15" t="n">
         <v>3.52</v>
@@ -7852,7 +7852,7 @@
         <v>19.3</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.9300000000000002</v>
+        <v>0.5700000000000043</v>
       </c>
       <c r="CR15" t="n">
         <v>10.84</v>
@@ -7861,7 +7861,7 @@
         <v>-5.5</v>
       </c>
       <c r="CT15" t="n">
-        <v>1.789999999999999</v>
+        <v>0.4899999999999991</v>
       </c>
       <c r="CU15" t="n">
         <v>11.08</v>
@@ -8060,7 +8060,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.960000000000001</v>
+        <v>1.680000000000013</v>
       </c>
       <c r="C16" t="n">
         <v>22.38</v>
@@ -8087,7 +8087,7 @@
         <v>15.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4500000000000002</v>
+        <v>0.3000000000000019</v>
       </c>
       <c r="L16" t="n">
         <v>3.12</v>
@@ -8105,7 +8105,7 @@
         <v>595.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.27</v>
+        <v>1.619999999999993</v>
       </c>
       <c r="R16" t="n">
         <v>50.16</v>
@@ -8114,7 +8114,7 @@
         <v>14</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8099999999999996</v>
+        <v>0.07999999999999963</v>
       </c>
       <c r="U16" t="n">
         <v>7.3</v>
@@ -8132,7 +8132,7 @@
         <v>21.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.7599999999999998</v>
+        <v>0.02000000000000052</v>
       </c>
       <c r="AA16" t="n">
         <v>5.08</v>
@@ -8141,7 +8141,7 @@
         <v>-0.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.9299999999999997</v>
+        <v>0.5099999999999993</v>
       </c>
       <c r="AD16" t="n">
         <v>9.220000000000001</v>
@@ -8150,7 +8150,7 @@
         <v>-2.3</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.23</v>
+        <v>0.02999999999999979</v>
       </c>
       <c r="AG16" t="n">
         <v>2.04</v>
@@ -8159,7 +8159,7 @@
         <v>20.6</v>
       </c>
       <c r="AI16" t="n">
-        <v>77.24000000000001</v>
+        <v>74.07999999999993</v>
       </c>
       <c r="AJ16" t="n">
         <v>580.05</v>
@@ -8168,7 +8168,7 @@
         <v>9.9</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.4799999999999995</v>
+        <v>0.1699999999999994</v>
       </c>
       <c r="AM16" t="n">
         <v>3.85</v>
@@ -8177,7 +8177,7 @@
         <v>6.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>3</v>
+        <v>0.05999999999999717</v>
       </c>
       <c r="AP16" t="n">
         <v>25.32</v>
@@ -8186,7 +8186,7 @@
         <v>-2.6</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.49</v>
+        <v>0.3100000000000003</v>
       </c>
       <c r="AS16" t="n">
         <v>11.55</v>
@@ -8204,7 +8204,7 @@
         <v>39.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.46</v>
+        <v>0.03999999999999981</v>
       </c>
       <c r="AY16" t="n">
         <v>8.98</v>
@@ -8213,7 +8213,7 @@
         <v>18.5</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.5700000000000003</v>
+        <v>0.05000000000000271</v>
       </c>
       <c r="BB16" t="n">
         <v>4.03</v>
@@ -8222,7 +8222,7 @@
         <v>5</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.9900000000000002</v>
+        <v>0.3500000000000014</v>
       </c>
       <c r="BE16" t="n">
         <v>1.35</v>
@@ -8231,7 +8231,7 @@
         <v>-33.8</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.5500000000000007</v>
+        <v>0.02999999999999939</v>
       </c>
       <c r="BH16" t="n">
         <v>4.81</v>
@@ -8240,7 +8240,7 @@
         <v>-14.7</v>
       </c>
       <c r="BJ16" t="n">
-        <v>1.1</v>
+        <v>0.02000000000000041</v>
       </c>
       <c r="BK16" t="n">
         <v>6.13</v>
@@ -8258,7 +8258,7 @@
         <v>-6.1</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.07000000000000062</v>
       </c>
       <c r="BQ16" t="n">
         <v>6.7</v>
@@ -8276,7 +8276,7 @@
         <v>0.1</v>
       </c>
       <c r="BV16" t="n">
-        <v>5.399999999999999</v>
+        <v>0.770000000000004</v>
       </c>
       <c r="BW16" t="n">
         <v>50.48</v>
@@ -8285,7 +8285,7 @@
         <v>43.9</v>
       </c>
       <c r="BY16" t="n">
-        <v>1.900000000000002</v>
+        <v>0.02000000000001201</v>
       </c>
       <c r="BZ16" t="n">
         <v>24.75</v>
@@ -8303,7 +8303,7 @@
         <v>-6.6</v>
       </c>
       <c r="CE16" t="n">
-        <v>2.030000000000005</v>
+        <v>0.6100000000000072</v>
       </c>
       <c r="CF16" t="n">
         <v>20.27</v>
@@ -8312,7 +8312,7 @@
         <v>14.9</v>
       </c>
       <c r="CH16" t="n">
-        <v>1.12</v>
+        <v>0.2800000000000002</v>
       </c>
       <c r="CI16" t="n">
         <v>2.38</v>
@@ -8321,7 +8321,7 @@
         <v>72.5</v>
       </c>
       <c r="CK16" t="n">
-        <v>3.23</v>
+        <v>0.1500000000000021</v>
       </c>
       <c r="CL16" t="n">
         <v>30.62</v>
@@ -8339,7 +8339,7 @@
         <v>22.7</v>
       </c>
       <c r="CQ16" t="n">
-        <v>2.279999999999999</v>
+        <v>0.5099999999999978</v>
       </c>
       <c r="CR16" t="n">
         <v>12.52</v>
@@ -8348,7 +8348,7 @@
         <v>-16</v>
       </c>
       <c r="CT16" t="n">
-        <v>1.540000000000001</v>
+        <v>0.4000000000000019</v>
       </c>
       <c r="CU16" t="n">
         <v>13.62</v>
@@ -8357,7 +8357,7 @@
         <v>7.9</v>
       </c>
       <c r="CW16" t="n">
-        <v>4.659999999999997</v>
+        <v>0.8999999999999917</v>
       </c>
       <c r="CX16" t="n">
         <v>37.96</v>
@@ -8366,7 +8366,7 @@
         <v>14</v>
       </c>
       <c r="CZ16" t="n">
-        <v>1.29</v>
+        <v>0.6499999999999995</v>
       </c>
       <c r="DA16" t="n">
         <v>2.73</v>
@@ -8375,7 +8375,7 @@
         <v>16.1</v>
       </c>
       <c r="DC16" t="n">
-        <v>1.42</v>
+        <v>0.2199999999999969</v>
       </c>
       <c r="DD16" t="n">
         <v>13.09</v>
@@ -8384,7 +8384,7 @@
         <v>38.1</v>
       </c>
       <c r="DF16" t="n">
-        <v>3.039999999999999</v>
+        <v>0.399999999999991</v>
       </c>
       <c r="DG16" t="n">
         <v>20.24</v>
@@ -8393,7 +8393,7 @@
         <v>2.9</v>
       </c>
       <c r="DI16" t="n">
-        <v>2.09</v>
+        <v>0.4500000000000002</v>
       </c>
       <c r="DJ16" t="n">
         <v>16.01</v>
@@ -8402,7 +8402,7 @@
         <v>24.2</v>
       </c>
       <c r="DL16" t="n">
-        <v>1.790000000000001</v>
+        <v>1.789999999999997</v>
       </c>
       <c r="DM16" t="n">
         <v>13.87</v>
@@ -8411,7 +8411,7 @@
         <v>27.7</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.07999999999999988</v>
       </c>
       <c r="DP16" t="n">
         <v>1.26</v>
@@ -8556,7 +8556,7 @@
         <v>2.7</v>
       </c>
       <c r="E17" t="n">
-        <v>7.760000000000002</v>
+        <v>1.180000000000003</v>
       </c>
       <c r="F17" t="n">
         <v>52.35</v>
@@ -8592,7 +8592,7 @@
         <v>20.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.390000000000001</v>
+        <v>0.260000000000022</v>
       </c>
       <c r="R17" t="n">
         <v>59.22</v>
@@ -8601,7 +8601,7 @@
         <v>7.2</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8200000000000014</v>
+        <v>0.01000000000000179</v>
       </c>
       <c r="U17" t="n">
         <v>8.33</v>
@@ -8610,7 +8610,7 @@
         <v>0.6</v>
       </c>
       <c r="W17" t="n">
-        <v>0.46</v>
+        <v>0.02000000000000141</v>
       </c>
       <c r="X17" t="n">
         <v>13.09</v>
@@ -8619,7 +8619,7 @@
         <v>24.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.3299999999999995</v>
       </c>
       <c r="AA17" t="n">
         <v>5.78</v>
@@ -8637,7 +8637,7 @@
         <v>2.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.23</v>
+        <v>0.04000000000000052</v>
       </c>
       <c r="AG17" t="n">
         <v>2.56</v>
@@ -8655,7 +8655,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.2800000000000002</v>
+        <v>0.1100000000000008</v>
       </c>
       <c r="AM17" t="n">
         <v>3.96</v>
@@ -8664,7 +8664,7 @@
         <v>-3.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.1600000000000001</v>
+        <v>0.1000000000000029</v>
       </c>
       <c r="AP17" t="n">
         <v>28.38</v>
@@ -8682,7 +8682,7 @@
         <v>39.7</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.1800000000000002</v>
+        <v>0.08999999999999989</v>
       </c>
       <c r="AV17" t="n">
         <v>3.74</v>
@@ -8691,7 +8691,7 @@
         <v>27.4</v>
       </c>
       <c r="AX17" t="n">
-        <v>1.09</v>
+        <v>0.09000000000000039</v>
       </c>
       <c r="AY17" t="n">
         <v>10.8</v>
@@ -8700,7 +8700,7 @@
         <v>14.9</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.2299999999999995</v>
+        <v>0.04999999999999741</v>
       </c>
       <c r="BB17" t="n">
         <v>4.72</v>
@@ -8718,7 +8718,7 @@
         <v>-11.2</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.4799999999999995</v>
+        <v>0.05999999999999911</v>
       </c>
       <c r="BH17" t="n">
         <v>6.06</v>
@@ -8727,7 +8727,7 @@
         <v>-2</v>
       </c>
       <c r="BJ17" t="n">
-        <v>1.38</v>
+        <v>0.009999999999999391</v>
       </c>
       <c r="BK17" t="n">
         <v>6.51</v>
@@ -8736,7 +8736,7 @@
         <v>34.7</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.8200000000000016</v>
+        <v>0.1800000000000028</v>
       </c>
       <c r="BN17" t="n">
         <v>6.79</v>
@@ -8745,7 +8745,7 @@
         <v>0.3</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.51</v>
+        <v>0.06000000000000028</v>
       </c>
       <c r="BQ17" t="n">
         <v>7.33</v>
@@ -8763,7 +8763,7 @@
         <v>11.4</v>
       </c>
       <c r="BV17" t="n">
-        <v>3.670000000000002</v>
+        <v>2.899999999999998</v>
       </c>
       <c r="BW17" t="n">
         <v>54.45</v>
@@ -8790,7 +8790,7 @@
         <v>-5.6</v>
       </c>
       <c r="CE17" t="n">
-        <v>13.29</v>
+        <v>9.429999999999964</v>
       </c>
       <c r="CF17" t="n">
         <v>26.44</v>
@@ -8799,7 +8799,7 @@
         <v>25.3</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.5099999999999998</v>
+        <v>0.1299999999999995</v>
       </c>
       <c r="CI17" t="n">
         <v>1.43</v>
@@ -8808,7 +8808,7 @@
         <v>27.7</v>
       </c>
       <c r="CK17" t="n">
-        <v>2.27</v>
+        <v>0.2799999999999947</v>
       </c>
       <c r="CL17" t="n">
         <v>34.78</v>
@@ -8817,7 +8817,7 @@
         <v>31.4</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.2599999999999998</v>
+        <v>0.0500000000000016</v>
       </c>
       <c r="CO17" t="n">
         <v>10.38</v>
@@ -8826,7 +8826,7 @@
         <v>15.6</v>
       </c>
       <c r="CQ17" t="n">
-        <v>1.640000000000001</v>
+        <v>0.290000000000002</v>
       </c>
       <c r="CR17" t="n">
         <v>13.68</v>
@@ -8853,7 +8853,7 @@
         <v>13.4</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.9400000000000004</v>
+        <v>0.1300000000000008</v>
       </c>
       <c r="DA17" t="n">
         <v>3.39</v>
@@ -8862,7 +8862,7 @@
         <v>-10.8</v>
       </c>
       <c r="DC17" t="n">
-        <v>1.469999999999999</v>
+        <v>0.04999999999999916</v>
       </c>
       <c r="DD17" t="n">
         <v>16.46</v>
@@ -8871,7 +8871,7 @@
         <v>51</v>
       </c>
       <c r="DF17" t="n">
-        <v>2.960000000000001</v>
+        <v>0.5800000000000041</v>
       </c>
       <c r="DG17" t="n">
         <v>23.56</v>
@@ -9034,7 +9034,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.34</v>
+        <v>0.6900000000000019</v>
       </c>
       <c r="C18" t="n">
         <v>26.83</v>
@@ -9043,7 +9043,7 @@
         <v>-1</v>
       </c>
       <c r="E18" t="n">
-        <v>8.689999999999998</v>
+        <v>0.9299999999999962</v>
       </c>
       <c r="F18" t="n">
         <v>58.68</v>
@@ -9052,7 +9052,7 @@
         <v>-5.1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2999999999999998</v>
+        <v>0.05999999999999958</v>
       </c>
       <c r="I18" t="n">
         <v>9.470000000000001</v>
@@ -9061,7 +9061,7 @@
         <v>25.6</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7399999999999998</v>
+        <v>0.1799999999999994</v>
       </c>
       <c r="L18" t="n">
         <v>4.23</v>
@@ -9079,7 +9079,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.83</v>
+        <v>1.329999999999992</v>
       </c>
       <c r="R18" t="n">
         <v>67.83</v>
@@ -9088,7 +9088,7 @@
         <v>4.9</v>
       </c>
       <c r="T18" t="n">
-        <v>0.06999999999999806</v>
+        <v>0.03999999999999269</v>
       </c>
       <c r="U18" t="n">
         <v>10.02</v>
@@ -9097,7 +9097,7 @@
         <v>1.1</v>
       </c>
       <c r="W18" t="n">
-        <v>0.389999999999999</v>
+        <v>0.1099999999999955</v>
       </c>
       <c r="X18" t="n">
         <v>15.09</v>
@@ -9115,7 +9115,7 @@
         <v>0.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.09999999999999909</v>
       </c>
       <c r="AD18" t="n">
         <v>12.65</v>
@@ -9133,7 +9133,7 @@
         <v>31.8</v>
       </c>
       <c r="AI18" t="n">
-        <v>103.87</v>
+        <v>2.290000000000035</v>
       </c>
       <c r="AJ18" t="n">
         <v>744.74</v>
@@ -9151,7 +9151,7 @@
         <v>2.2</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.330000000000002</v>
+        <v>0.6900000000000017</v>
       </c>
       <c r="AP18" t="n">
         <v>32.48</v>
@@ -9160,7 +9160,7 @@
         <v>1</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.48</v>
+        <v>0.22</v>
       </c>
       <c r="AS18" t="n">
         <v>15.12</v>
@@ -9169,7 +9169,7 @@
         <v>32.6</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.09999999999999962</v>
+        <v>0.009999999999999731</v>
       </c>
       <c r="AV18" t="n">
         <v>4.28</v>
@@ -9178,7 +9178,7 @@
         <v>37.2</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.1499999999999998</v>
       </c>
       <c r="AY18" t="n">
         <v>11.88</v>
@@ -9187,7 +9187,7 @@
         <v>13.3</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.7599999999999998</v>
+        <v>0.0700000000000012</v>
       </c>
       <c r="BB18" t="n">
         <v>5.62</v>
@@ -9196,7 +9196,7 @@
         <v>7.9</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.4399999999999997</v>
+        <v>0.01999999999999941</v>
       </c>
       <c r="BE18" t="n">
         <v>1.39</v>
@@ -9205,7 +9205,7 @@
         <v>-13.4</v>
       </c>
       <c r="BG18" t="n">
-        <v>1.070000000000001</v>
+        <v>0.05000000000000279</v>
       </c>
       <c r="BH18" t="n">
         <v>6.69</v>
@@ -9214,7 +9214,7 @@
         <v>0.2</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.8200000000000003</v>
+        <v>0.2300000000000009</v>
       </c>
       <c r="BK18" t="n">
         <v>7.27</v>
@@ -9223,7 +9223,7 @@
         <v>17.1</v>
       </c>
       <c r="BM18" t="n">
-        <v>1.07</v>
+        <v>0.06999999999999559</v>
       </c>
       <c r="BN18" t="n">
         <v>7.89</v>
@@ -9232,7 +9232,7 @@
         <v>-0.3</v>
       </c>
       <c r="BP18" t="n">
-        <v>1.279999999999999</v>
+        <v>0.1399999999999983</v>
       </c>
       <c r="BQ18" t="n">
         <v>8.92</v>
@@ -9241,7 +9241,7 @@
         <v>-41.8</v>
       </c>
       <c r="BS18" t="n">
-        <v>6.170000000000002</v>
+        <v>4.170000000000002</v>
       </c>
       <c r="BT18" t="n">
         <v>61.19</v>
@@ -9259,7 +9259,7 @@
         <v>29.3</v>
       </c>
       <c r="BY18" t="n">
-        <v>1.420000000000006</v>
+        <v>0.110000000000011</v>
       </c>
       <c r="BZ18" t="n">
         <v>32.3</v>
@@ -9286,7 +9286,7 @@
         <v>-22.4</v>
       </c>
       <c r="CH18" t="n">
-        <v>1.21</v>
+        <v>0.1900000000000004</v>
       </c>
       <c r="CI18" t="n">
         <v>1.71</v>
@@ -9295,7 +9295,7 @@
         <v>-37.9</v>
       </c>
       <c r="CK18" t="n">
-        <v>4.979999999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="CL18" t="n">
         <v>38.51</v>
@@ -9304,7 +9304,7 @@
         <v>20.5</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.4699999999999989</v>
+        <v>0.01999999999999871</v>
       </c>
       <c r="CO18" t="n">
         <v>11.05</v>
@@ -9313,7 +9313,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="CQ18" t="n">
-        <v>1.34</v>
+        <v>0.759999999999996</v>
       </c>
       <c r="CR18" t="n">
         <v>15.72</v>
@@ -9331,7 +9331,7 @@
         <v>12.7</v>
       </c>
       <c r="CW18" t="n">
-        <v>4.490000000000002</v>
+        <v>1.369999999999998</v>
       </c>
       <c r="CX18" t="n">
         <v>48.98</v>
@@ -9358,7 +9358,7 @@
         <v>38.8</v>
       </c>
       <c r="DF18" t="n">
-        <v>1.669999999999998</v>
+        <v>0.50999999999999</v>
       </c>
       <c r="DG18" t="n">
         <v>26.12</v>
@@ -9385,7 +9385,7 @@
         <v>19.3</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.1299999999999998</v>
+        <v>0.009999999999999704</v>
       </c>
       <c r="DP18" t="n">
         <v>1.57</v>
@@ -9530,7 +9530,7 @@
         <v>4.7</v>
       </c>
       <c r="E19" t="n">
-        <v>6.990000000000009</v>
+        <v>4.200000000000021</v>
       </c>
       <c r="F19" t="n">
         <v>69.8</v>
@@ -9539,7 +9539,7 @@
         <v>-1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1200000000000002</v>
+        <v>1.040834085586084e-15</v>
       </c>
       <c r="I19" t="n">
         <v>10.55</v>
@@ -9548,7 +9548,7 @@
         <v>32.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.92</v>
+        <v>2.360000000000003</v>
       </c>
       <c r="L19" t="n">
         <v>4.71</v>
@@ -9566,7 +9566,7 @@
         <v>74.90000000000001</v>
       </c>
       <c r="Q19" t="n">
-        <v>12.95999999999999</v>
+        <v>1.969999999999998</v>
       </c>
       <c r="R19" t="n">
         <v>76.42</v>
@@ -9575,7 +9575,7 @@
         <v>-3.1</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5400000000000011</v>
+        <v>0.2900000000000142</v>
       </c>
       <c r="U19" t="n">
         <v>11.71</v>
@@ -9584,7 +9584,7 @@
         <v>0.8</v>
       </c>
       <c r="W19" t="n">
-        <v>1.789999999999999</v>
+        <v>0.7300000000000056</v>
       </c>
       <c r="X19" t="n">
         <v>17.2</v>
@@ -9593,7 +9593,7 @@
         <v>22.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.54</v>
+        <v>0.1199999999999982</v>
       </c>
       <c r="AA19" t="n">
         <v>7.09</v>
@@ -9602,7 +9602,7 @@
         <v>-4.1</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.7699999999999996</v>
+        <v>0.02000000000000111</v>
       </c>
       <c r="AD19" t="n">
         <v>14.17</v>
@@ -9620,7 +9620,7 @@
         <v>34.9</v>
       </c>
       <c r="AI19" t="n">
-        <v>96.15999999999997</v>
+        <v>23.85999999999991</v>
       </c>
       <c r="AJ19" t="n">
         <v>835.73</v>
@@ -9629,7 +9629,7 @@
         <v>1.9</v>
       </c>
       <c r="AL19" t="n">
-        <v>4.37</v>
+        <v>3.930000000000002</v>
       </c>
       <c r="AM19" t="n">
         <v>4.51</v>
@@ -9638,7 +9638,7 @@
         <v>-5.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>3.210000000000001</v>
+        <v>0.7099999999999971</v>
       </c>
       <c r="AP19" t="n">
         <v>35.17</v>
@@ -9647,7 +9647,7 @@
         <v>-4</v>
       </c>
       <c r="AR19" t="n">
-        <v>1.369999999999999</v>
+        <v>0.2299999999999991</v>
       </c>
       <c r="AS19" t="n">
         <v>16.79</v>
@@ -9656,7 +9656,7 @@
         <v>23.1</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.1600000000000001</v>
+        <v>0.04000000000000101</v>
       </c>
       <c r="AV19" t="n">
         <v>4.49</v>
@@ -9674,7 +9674,7 @@
         <v>13.9</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.0399999999999982</v>
       </c>
       <c r="BB19" t="n">
         <v>6.73</v>
@@ -9683,7 +9683,7 @@
         <v>12.8</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.3700000000000001</v>
+        <v>0.0500000000000011</v>
       </c>
       <c r="BE19" t="n">
         <v>1.72</v>
@@ -9692,7 +9692,7 @@
         <v>-21.8</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.3099999999999987</v>
+        <v>0.149999999999994</v>
       </c>
       <c r="BH19" t="n">
         <v>7.46</v>
@@ -9701,7 +9701,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="BJ19" t="n">
-        <v>1.07</v>
+        <v>0.2499999999999998</v>
       </c>
       <c r="BK19" t="n">
         <v>7.57</v>
@@ -9710,7 +9710,7 @@
         <v>-10</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.7799999999999994</v>
+        <v>0.2100000000000069</v>
       </c>
       <c r="BN19" t="n">
         <v>8.82</v>
@@ -9719,7 +9719,7 @@
         <v>-1.7</v>
       </c>
       <c r="BP19" t="n">
-        <v>0.8300000000000018</v>
+        <v>0.06000000000000294</v>
       </c>
       <c r="BQ19" t="n">
         <v>10.01</v>
@@ -9737,7 +9737,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="BV19" t="n">
-        <v>7.309999999999995</v>
+        <v>0.7099999999999942</v>
       </c>
       <c r="BW19" t="n">
         <v>74.5</v>
@@ -9746,7 +9746,7 @@
         <v>23.6</v>
       </c>
       <c r="BY19" t="n">
-        <v>2.859999999999999</v>
+        <v>1.10999999999996</v>
       </c>
       <c r="BZ19" t="n">
         <v>36.77</v>
@@ -9755,7 +9755,7 @@
         <v>7.5</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.7900000000000009</v>
+        <v>0.2500000000000045</v>
       </c>
       <c r="CC19" t="n">
         <v>7.59</v>
@@ -9773,7 +9773,7 @@
         <v>-27.7</v>
       </c>
       <c r="CH19" t="n">
-        <v>1.07</v>
+        <v>0.1799999999999995</v>
       </c>
       <c r="CI19" t="n">
         <v>2.13</v>
@@ -9782,7 +9782,7 @@
         <v>76.7</v>
       </c>
       <c r="CK19" t="n">
-        <v>3.980000000000004</v>
+        <v>0.3900000000000133</v>
       </c>
       <c r="CL19" t="n">
         <v>42.09</v>
@@ -9791,7 +9791,7 @@
         <v>13.9</v>
       </c>
       <c r="CN19" t="n">
-        <v>0.2200000000000006</v>
+        <v>0.01000000000000151</v>
       </c>
       <c r="CO19" t="n">
         <v>12.08</v>
@@ -9809,7 +9809,7 @@
         <v>-19.2</v>
       </c>
       <c r="CT19" t="n">
-        <v>1.77</v>
+        <v>0.3600000000000023</v>
       </c>
       <c r="CU19" t="n">
         <v>19.29</v>
@@ -9818,7 +9818,7 @@
         <v>1.5</v>
       </c>
       <c r="CW19" t="n">
-        <v>4.300000000000004</v>
+        <v>0.5900000000000034</v>
       </c>
       <c r="CX19" t="n">
         <v>52.36</v>
@@ -9836,7 +9836,7 @@
         <v>-29.5</v>
       </c>
       <c r="DC19" t="n">
-        <v>2.23</v>
+        <v>2.229999999999992</v>
       </c>
       <c r="DD19" t="n">
         <v>22.7</v>
@@ -9854,7 +9854,7 @@
         <v>6.1</v>
       </c>
       <c r="DI19" t="n">
-        <v>2.390000000000001</v>
+        <v>1.990000000000009</v>
       </c>
       <c r="DJ19" t="n">
         <v>22.57</v>
@@ -9872,7 +9872,7 @@
         <v>14.8</v>
       </c>
       <c r="DO19" t="n">
-        <v>0.01000000000000001</v>
+        <v>3.070460552478949e-16</v>
       </c>
       <c r="DP19" t="n">
         <v>1.84</v>
@@ -10008,7 +10008,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8599999999999999</v>
+        <v>0.09999999999999468</v>
       </c>
       <c r="C20" t="n">
         <v>32.68</v>
@@ -10017,7 +10017,7 @@
         <v>2.3</v>
       </c>
       <c r="E20" t="n">
-        <v>6.449999999999989</v>
+        <v>0.3899999999999757</v>
       </c>
       <c r="F20" t="n">
         <v>76.41</v>
@@ -10026,7 +10026,7 @@
         <v>-1.4</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3599999999999994</v>
+        <v>0.05999999999999837</v>
       </c>
       <c r="I20" t="n">
         <v>12.03</v>
@@ -10053,7 +10053,7 @@
         <v>-43.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.780000000000001</v>
+        <v>1.650000000000011</v>
       </c>
       <c r="R20" t="n">
         <v>79.86</v>
@@ -10062,7 +10062,7 @@
         <v>-13</v>
       </c>
       <c r="T20" t="n">
-        <v>2.180000000000001</v>
+        <v>0.4299999999999833</v>
       </c>
       <c r="U20" t="n">
         <v>13.17</v>
@@ -10071,7 +10071,7 @@
         <v>-4.9</v>
       </c>
       <c r="W20" t="n">
-        <v>1.640000000000001</v>
+        <v>0.2400000000000011</v>
       </c>
       <c r="X20" t="n">
         <v>18.83</v>
@@ -10080,7 +10080,7 @@
         <v>19.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.01000000000000169</v>
       </c>
       <c r="AA20" t="n">
         <v>7.65</v>
@@ -10089,7 +10089,7 @@
         <v>-3.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.7100000000000004</v>
+        <v>0.1999999999999994</v>
       </c>
       <c r="AD20" t="n">
         <v>15.22</v>
@@ -10098,7 +10098,7 @@
         <v>11.1</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.2000000000000031</v>
       </c>
       <c r="AG20" t="n">
         <v>3.67</v>
@@ -10107,7 +10107,7 @@
         <v>32.1</v>
       </c>
       <c r="AI20" t="n">
-        <v>88.2700000000001</v>
+        <v>35.9700000000002</v>
       </c>
       <c r="AJ20" t="n">
         <v>897.08</v>
@@ -10116,7 +10116,7 @@
         <v>-2.1</v>
       </c>
       <c r="AL20" t="n">
-        <v>4.13</v>
+        <v>0.08999999999999808</v>
       </c>
       <c r="AM20" t="n">
         <v>4.64</v>
@@ -10134,7 +10134,7 @@
         <v>-5</v>
       </c>
       <c r="AR20" t="n">
-        <v>1.290000000000003</v>
+        <v>0.4000000000000039</v>
       </c>
       <c r="AS20" t="n">
         <v>17.66</v>
@@ -10143,7 +10143,7 @@
         <v>17.6</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.009999999999998954</v>
       </c>
       <c r="AV20" t="n">
         <v>4.85</v>
@@ -10152,7 +10152,7 @@
         <v>36.3</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.5399999999999991</v>
+        <v>0.5</v>
       </c>
       <c r="AY20" t="n">
         <v>14.23</v>
@@ -10161,7 +10161,7 @@
         <v>15.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.21</v>
+        <v>0.1000000000000006</v>
       </c>
       <c r="BB20" t="n">
         <v>7.71</v>
@@ -10170,7 +10170,7 @@
         <v>20.8</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.52</v>
+        <v>0.009999999999998899</v>
       </c>
       <c r="BE20" t="n">
         <v>2.05</v>
@@ -10179,7 +10179,7 @@
         <v>-19.8</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.6500000000000021</v>
+        <v>0.03000000000000469</v>
       </c>
       <c r="BH20" t="n">
         <v>8.59</v>
@@ -10188,7 +10188,7 @@
         <v>0.6</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.2000000000000017</v>
       </c>
       <c r="BK20" t="n">
         <v>7.3</v>
@@ -10197,7 +10197,7 @@
         <v>-37.5</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.4600000000000009</v>
+        <v>0.1799999999999984</v>
       </c>
       <c r="BN20" t="n">
         <v>9.800000000000001</v>
@@ -10206,7 +10206,7 @@
         <v>0.5</v>
       </c>
       <c r="BP20" t="n">
-        <v>0.3699999999999974</v>
+        <v>0.2499999999999915</v>
       </c>
       <c r="BQ20" t="n">
         <v>10.2</v>
@@ -10215,7 +10215,7 @@
         <v>-41.5</v>
       </c>
       <c r="BS20" t="n">
-        <v>6.400000000000006</v>
+        <v>0.820000000000022</v>
       </c>
       <c r="BT20" t="n">
         <v>73.15000000000001</v>
@@ -10224,7 +10224,7 @@
         <v>-12.8</v>
       </c>
       <c r="BV20" t="n">
-        <v>3.360000000000014</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="BW20" t="n">
         <v>78.55</v>
@@ -10242,7 +10242,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="CB20" t="n">
-        <v>0.6399999999999988</v>
+        <v>0.1199999999999961</v>
       </c>
       <c r="CC20" t="n">
         <v>8.449999999999999</v>
@@ -10251,7 +10251,7 @@
         <v>-1.2</v>
       </c>
       <c r="CE20" t="n">
-        <v>12.01</v>
+        <v>2.909999999999997</v>
       </c>
       <c r="CF20" t="n">
         <v>37.68</v>
@@ -10260,7 +10260,7 @@
         <v>-37.5</v>
       </c>
       <c r="CH20" t="n">
-        <v>0.5</v>
+        <v>0.1300000000000001</v>
       </c>
       <c r="CI20" t="n">
         <v>1.82</v>
@@ -10278,7 +10278,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="CN20" t="n">
-        <v>0.379999999999999</v>
+        <v>0.1399999999999954</v>
       </c>
       <c r="CO20" t="n">
         <v>12.65</v>
@@ -10287,7 +10287,7 @@
         <v>16</v>
       </c>
       <c r="CQ20" t="n">
-        <v>1.780000000000001</v>
+        <v>0.4600000000000009</v>
       </c>
       <c r="CR20" t="n">
         <v>18.07</v>
@@ -10305,7 +10305,7 @@
         <v>-0.3</v>
       </c>
       <c r="CW20" t="n">
-        <v>0.8699999999999903</v>
+        <v>0.2799999999999869</v>
       </c>
       <c r="CX20" t="n">
         <v>55.88</v>
@@ -10314,7 +10314,7 @@
         <v>7.1</v>
       </c>
       <c r="CZ20" t="n">
-        <v>0.29</v>
+        <v>0.08999999999999977</v>
       </c>
       <c r="DA20" t="n">
         <v>4.1</v>
@@ -10332,7 +10332,7 @@
         <v>27.4</v>
       </c>
       <c r="DF20" t="n">
-        <v>2.18</v>
+        <v>0.3199999999999965</v>
       </c>
       <c r="DG20" t="n">
         <v>31.33</v>
@@ -10350,7 +10350,7 @@
         <v>5.7</v>
       </c>
       <c r="DL20" t="n">
-        <v>0.1799999999999988</v>
+        <v>0.009999999999998899</v>
       </c>
       <c r="DM20" t="n">
         <v>19.79</v>
@@ -10359,7 +10359,7 @@
         <v>10.7</v>
       </c>
       <c r="DO20" t="n">
-        <v>0.28</v>
+        <v>0.2499999999999997</v>
       </c>
       <c r="DP20" t="n">
         <v>1.96</v>
@@ -10495,7 +10495,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.949999999999996</v>
+        <v>0.1300000000000015</v>
       </c>
       <c r="C21" t="n">
         <v>36.01</v>
@@ -10504,7 +10504,7 @@
         <v>1.88</v>
       </c>
       <c r="E21" t="n">
-        <v>4.390000000000001</v>
+        <v>4.000000000000025</v>
       </c>
       <c r="F21" t="n">
         <v>79.88</v>
@@ -10522,7 +10522,7 @@
         <v>36.91</v>
       </c>
       <c r="K21" t="n">
-        <v>4.48</v>
+        <v>1.48</v>
       </c>
       <c r="L21" t="n">
         <v>5.73</v>
@@ -10540,7 +10540,7 @@
         <v>-3.32</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.260000000000009</v>
+        <v>0.9599999999999871</v>
       </c>
       <c r="R21" t="n">
         <v>88.45</v>
@@ -10549,7 +10549,7 @@
         <v>-12.95</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.1400000000000081</v>
       </c>
       <c r="U21" t="n">
         <v>14.69</v>
@@ -10558,7 +10558,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="W21" t="n">
-        <v>1.420000000000002</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="X21" t="n">
         <v>21.5</v>
@@ -10567,7 +10567,7 @@
         <v>23.39</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.29</v>
+        <v>0.0199999999999985</v>
       </c>
       <c r="AA21" t="n">
         <v>8.42</v>
@@ -10576,7 +10576,7 @@
         <v>4.38</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.5899999999999999</v>
+        <v>0.02999999999999869</v>
       </c>
       <c r="AD21" t="n">
         <v>16.87</v>
@@ -10612,7 +10612,7 @@
         <v>16.76</v>
       </c>
       <c r="AO21" t="n">
-        <v>2.350000000000001</v>
+        <v>0.49000000000001</v>
       </c>
       <c r="AP21" t="n">
         <v>40.74</v>
@@ -10630,7 +10630,7 @@
         <v>9.17</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.23</v>
+        <v>0.02000000000000172</v>
       </c>
       <c r="AV21" t="n">
         <v>5.23</v>
@@ -10639,7 +10639,7 @@
         <v>35.87</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.9600000000000009</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="AY21" t="n">
         <v>15.04</v>
@@ -10648,7 +10648,7 @@
         <v>9.17</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.6800000000000006</v>
+        <v>0.05000000000000063</v>
       </c>
       <c r="BB21" t="n">
         <v>8.18</v>
@@ -10657,7 +10657,7 @@
         <v>24.14</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.1799999999999997</v>
+        <v>0.02999999999999978</v>
       </c>
       <c r="BE21" t="n">
         <v>2.44</v>
@@ -10666,7 +10666,7 @@
         <v>-29.29</v>
       </c>
       <c r="BG21" t="n">
-        <v>0.2199999999999991</v>
+        <v>0.1599999999999897</v>
       </c>
       <c r="BH21" t="n">
         <v>9.67</v>
@@ -10693,7 +10693,7 @@
         <v>3.85</v>
       </c>
       <c r="BP21" t="n">
-        <v>16.97</v>
+        <v>15.55</v>
       </c>
       <c r="BQ21" t="n">
         <v>9.59</v>
@@ -10702,7 +10702,7 @@
         <v>-46.18</v>
       </c>
       <c r="BS21" t="n">
-        <v>3.609999999999999</v>
+        <v>1.969999999999955</v>
       </c>
       <c r="BT21" t="n">
         <v>76.81</v>
@@ -10720,7 +10720,7 @@
         <v>17.01</v>
       </c>
       <c r="BY21" t="n">
-        <v>1.570000000000008</v>
+        <v>0.05000000000001203</v>
       </c>
       <c r="BZ21" t="n">
         <v>43.39</v>
@@ -10729,7 +10729,7 @@
         <v>6.65</v>
       </c>
       <c r="CB21" t="n">
-        <v>0.2700000000000014</v>
+        <v>0.0300000000000092</v>
       </c>
       <c r="CC21" t="n">
         <v>8.52</v>
@@ -10738,7 +10738,7 @@
         <v>-7.32</v>
       </c>
       <c r="CE21" t="n">
-        <v>58.17000000000001</v>
+        <v>32.88000000000002</v>
       </c>
       <c r="CF21" t="n">
         <v>35.68</v>
@@ -10747,7 +10747,7 @@
         <v>-50.64</v>
       </c>
       <c r="CH21" t="n">
-        <v>1.22</v>
+        <v>0.08999999999999991</v>
       </c>
       <c r="CI21" t="n">
         <v>1.68</v>
@@ -10756,7 +10756,7 @@
         <v>-39.61</v>
       </c>
       <c r="CK21" t="n">
-        <v>2.68</v>
+        <v>2.280000000000024</v>
       </c>
       <c r="CL21" t="n">
         <v>49.7</v>
@@ -10765,7 +10765,7 @@
         <v>10.47</v>
       </c>
       <c r="CN21" t="n">
-        <v>0.2100000000000009</v>
+        <v>0.05000000000000251</v>
       </c>
       <c r="CO21" t="n">
         <v>13.55</v>
@@ -10774,7 +10774,7 @@
         <v>17.7</v>
       </c>
       <c r="CQ21" t="n">
-        <v>1.18</v>
+        <v>0.05999999999999894</v>
       </c>
       <c r="CR21" t="n">
         <v>20.14</v>
@@ -10783,7 +10783,7 @@
         <v>-13.49</v>
       </c>
       <c r="CT21" t="n">
-        <v>0.6000000000000014</v>
+        <v>0.4800000000000137</v>
       </c>
       <c r="CU21" t="n">
         <v>22.94</v>
@@ -10792,7 +10792,7 @@
         <v>1.57</v>
       </c>
       <c r="CW21" t="n">
-        <v>0.5100000000000051</v>
+        <v>0.2300000000000182</v>
       </c>
       <c r="CX21" t="n">
         <v>57.9</v>
@@ -10801,7 +10801,7 @@
         <v>0.92</v>
       </c>
       <c r="CZ21" t="n">
-        <v>5.52</v>
+        <v>4.960000000000001</v>
       </c>
       <c r="DA21" t="n">
         <v>4.36</v>
@@ -10828,7 +10828,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="DI21" t="n">
-        <v>0.6600000000000001</v>
+        <v>0.02000000000000063</v>
       </c>
       <c r="DJ21" t="n">
         <v>26.84</v>
@@ -10837,7 +10837,7 @@
         <v>5.27</v>
       </c>
       <c r="DL21" t="n">
-        <v>1.550000000000001</v>
+        <v>1.340000000000005</v>
       </c>
       <c r="DM21" t="n">
         <v>21.62</v>
@@ -10982,7 +10982,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.160000000000004</v>
+        <v>0.2100000000000082</v>
       </c>
       <c r="C22" t="n">
         <v>37.35</v>
@@ -10991,7 +10991,7 @@
         <v>0.13</v>
       </c>
       <c r="E22" t="n">
-        <v>14.29000000000001</v>
+        <v>1.120000000000008</v>
       </c>
       <c r="F22" t="n">
         <v>85.94</v>
@@ -11027,7 +11027,7 @@
         <v>103.79</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.969999999999999</v>
+        <v>0.0999999999999921</v>
       </c>
       <c r="R22" t="n">
         <v>96.06999999999999</v>
@@ -11036,7 +11036,7 @@
         <v>-16.92</v>
       </c>
       <c r="T22" t="n">
-        <v>3.289999999999999</v>
+        <v>0.5599999999999989</v>
       </c>
       <c r="U22" t="n">
         <v>14.7</v>
@@ -11045,7 +11045,7 @@
         <v>-13.21</v>
       </c>
       <c r="W22" t="n">
-        <v>2.549999999999997</v>
+        <v>1.129999999999995</v>
       </c>
       <c r="X22" t="n">
         <v>22.7</v>
@@ -11054,7 +11054,7 @@
         <v>20.45</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.4700000000000007</v>
+        <v>0.0200000000000006</v>
       </c>
       <c r="AA22" t="n">
         <v>8.619999999999999</v>
@@ -11063,7 +11063,7 @@
         <v>1.52</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.89</v>
+        <v>0.8700000000000009</v>
       </c>
       <c r="AD22" t="n">
         <v>18.39</v>
@@ -11099,7 +11099,7 @@
         <v>8.85</v>
       </c>
       <c r="AO22" t="n">
-        <v>7.079999999999998</v>
+        <v>1.399999999999976</v>
       </c>
       <c r="AP22" t="n">
         <v>43.57</v>
@@ -11108,7 +11108,7 @@
         <v>-5.35</v>
       </c>
       <c r="AR22" t="n">
-        <v>2.509999999999998</v>
+        <v>1.149999999999998</v>
       </c>
       <c r="AS22" t="n">
         <v>19.1</v>
@@ -11117,7 +11117,7 @@
         <v>6.05</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.3599999999999999</v>
+        <v>0.02999999999999979</v>
       </c>
       <c r="AV22" t="n">
         <v>5.81</v>
@@ -11126,7 +11126,7 @@
         <v>42.35</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.4599999999999991</v>
+        <v>0.03999999999999737</v>
       </c>
       <c r="AY22" t="n">
         <v>15.81</v>
@@ -11135,7 +11135,7 @@
         <v>7.28</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.7799999999999994</v>
+        <v>0.04999999999999813</v>
       </c>
       <c r="BB22" t="n">
         <v>8.83</v>
@@ -11144,7 +11144,7 @@
         <v>17.99</v>
       </c>
       <c r="BD22" t="n">
-        <v>2.75</v>
+        <v>2.33</v>
       </c>
       <c r="BE22" t="n">
         <v>2.51</v>
@@ -11153,7 +11153,7 @@
         <v>-30.86</v>
       </c>
       <c r="BG22" t="n">
-        <v>1.75</v>
+        <v>0.9000000000000086</v>
       </c>
       <c r="BH22" t="n">
         <v>10.96</v>
@@ -11171,7 +11171,7 @@
         <v>-44.9</v>
       </c>
       <c r="BM22" t="n">
-        <v>8.75</v>
+        <v>7.590000000000003</v>
       </c>
       <c r="BN22" t="n">
         <v>11.74</v>
@@ -11180,7 +11180,7 @@
         <v>7.07</v>
       </c>
       <c r="BP22" t="n">
-        <v>16.2</v>
+        <v>0.3399999999999999</v>
       </c>
       <c r="BQ22" t="n">
         <v>11.08</v>
@@ -11189,7 +11189,7 @@
         <v>-36.06</v>
       </c>
       <c r="BS22" t="n">
-        <v>85.28</v>
+        <v>71.66000000000003</v>
       </c>
       <c r="BT22" t="n">
         <v>78.90000000000001</v>
@@ -11198,7 +11198,7 @@
         <v>-15.98</v>
       </c>
       <c r="BV22" t="n">
-        <v>1.049999999999997</v>
+        <v>0.2300000000000331</v>
       </c>
       <c r="BW22" t="n">
         <v>88.73999999999999</v>
@@ -11207,7 +11207,7 @@
         <v>18.79</v>
       </c>
       <c r="BY22" t="n">
-        <v>1.259999999999991</v>
+        <v>0.3499999999999568</v>
       </c>
       <c r="BZ22" t="n">
         <v>45.33</v>
@@ -11216,7 +11216,7 @@
         <v>-1.19</v>
       </c>
       <c r="CB22" t="n">
-        <v>1.129999999999998</v>
+        <v>0.1699999999999885</v>
       </c>
       <c r="CC22" t="n">
         <v>9.18</v>
@@ -11225,7 +11225,7 @@
         <v>-2.94</v>
       </c>
       <c r="CE22" t="n">
-        <v>67.16</v>
+        <v>8.989999999999988</v>
       </c>
       <c r="CF22" t="n">
         <v>38.63</v>
@@ -11234,7 +11234,7 @@
         <v>-44.95</v>
       </c>
       <c r="CH22" t="n">
-        <v>1.64</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="CI22" t="n">
         <v>1.66</v>
@@ -11252,7 +11252,7 @@
         <v>11.55</v>
       </c>
       <c r="CN22" t="n">
-        <v>11.01</v>
+        <v>10.49</v>
       </c>
       <c r="CO22" t="n">
         <v>14.77</v>
@@ -11261,7 +11261,7 @@
         <v>19.89</v>
       </c>
       <c r="CQ22" t="n">
-        <v>2.269999999999999</v>
+        <v>0.9700000000000011</v>
       </c>
       <c r="CR22" t="n">
         <v>21.06</v>
@@ -11270,7 +11270,7 @@
         <v>-13.89</v>
       </c>
       <c r="CT22" t="n">
-        <v>3.02</v>
+        <v>0.7999999999999763</v>
       </c>
       <c r="CU22" t="n">
         <v>24.56</v>
@@ -11279,7 +11279,7 @@
         <v>5.94</v>
       </c>
       <c r="CW22" t="n">
-        <v>6.499999999999993</v>
+        <v>4.459999999999973</v>
       </c>
       <c r="CX22" t="n">
         <v>60</v>
@@ -11306,7 +11306,7 @@
         <v>31.02</v>
       </c>
       <c r="DF22" t="n">
-        <v>2.209999999999998</v>
+        <v>2.04999999999999</v>
       </c>
       <c r="DG22" t="n">
         <v>37.19</v>
@@ -11315,7 +11315,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="DI22" t="n">
-        <v>2.049999999999997</v>
+        <v>1.009999999999995</v>
       </c>
       <c r="DJ22" t="n">
         <v>29.31</v>
@@ -11333,7 +11333,7 @@
         <v>3.85</v>
       </c>
       <c r="DO22" t="n">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="DP22" t="n">
         <v>2.19</v>
